--- a/Misc_Files/Risk_Management/CRUDProject_RiskAssessment.xlsx
+++ b/Misc_Files/Risk_Management/CRUDProject_RiskAssessment.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>SEVERITY</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Risk Level</t>
+  </si>
+  <si>
+    <t>Date Added</t>
   </si>
   <si>
     <t>Minimal</t>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>possible</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
   </si>
   <si>
     <t>LIKELIHOOD</t>
@@ -159,6 +165,54 @@
   <si>
     <t>Aways have a contigency plan to use another online web services provider, just in case.</t>
   </si>
+  <si>
+    <t>I could forget Jenkins password</t>
+  </si>
+  <si>
+    <t>I won't be able to run the app via Jenkins</t>
+  </si>
+  <si>
+    <t>Setup a new VM with Jenkins</t>
+  </si>
+  <si>
+    <t>Either write down the password, choose one that can be easily remembered or use a password manager.</t>
+  </si>
+  <si>
+    <t>21/05/2021</t>
+  </si>
+  <si>
+    <t>Unable to get relationship working in database</t>
+  </si>
+  <si>
+    <t>The relationship with the player and the position won't work which is part of the MVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep trying to get it working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go through past demos &amp; QA Community </t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>22/05/2021</t>
+  </si>
+  <si>
+    <t>Firewall may not allow VM to access database.</t>
+  </si>
+  <si>
+    <t>App won't run through VM or Jenkins</t>
+  </si>
+  <si>
+    <t>Change connections in MySql database on GCP to allow IP address of VM</t>
+  </si>
+  <si>
+    <t>Allow this straight away once setup of VM is complete</t>
+  </si>
+  <si>
+    <t>Guarenteed (if not setup)</t>
+  </si>
 </sst>
 </file>
 
@@ -197,14 +251,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -300,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -317,6 +371,9 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -328,13 +385,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" textRotation="90" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -343,8 +403,20 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -568,11 +640,12 @@
     <col customWidth="1" min="6" max="6" width="21.75"/>
     <col customWidth="1" min="7" max="7" width="19.0"/>
     <col customWidth="1" min="8" max="8" width="18.25"/>
-    <col customWidth="1" min="9" max="9" width="8.0"/>
-    <col customWidth="1" min="10" max="10" width="2.63"/>
-    <col customWidth="1" min="11" max="11" width="8.38"/>
-    <col customWidth="1" min="12" max="16" width="8.88"/>
-    <col customWidth="1" min="17" max="26" width="7.63"/>
+    <col customWidth="1" min="9" max="9" width="9.38"/>
+    <col customWidth="1" min="10" max="10" width="8.0"/>
+    <col customWidth="1" min="11" max="11" width="2.63"/>
+    <col customWidth="1" min="12" max="12" width="8.38"/>
+    <col customWidth="1" min="13" max="17" width="8.88"/>
+    <col customWidth="1" min="18" max="27" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="11.25" customHeight="1">
@@ -587,14 +660,14 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -604,6 +677,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
@@ -628,25 +702,27 @@
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -656,55 +732,58 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" ht="61.5" customHeight="1">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="H3" s="12">
         <v>10.0</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="12">
+      <c r="J3" s="1"/>
+      <c r="K3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="14">
         <v>5.0</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="15">
         <v>10.0</v>
       </c>
-      <c r="N3" s="14">
+      <c r="O3" s="16">
         <v>15.0</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="17">
         <v>20.0</v>
       </c>
-      <c r="P3" s="15">
+      <c r="Q3" s="17">
         <v>25.0</v>
       </c>
-      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -714,53 +793,56 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" ht="45.0" customHeight="1">
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
       </c>
-      <c r="H4" s="9">
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18">
         <v>16.0</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="8" t="s">
-        <v>24</v>
+      <c r="I4" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="L4" s="12">
+      <c r="J4" s="1"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="14">
         <v>4.0</v>
       </c>
-      <c r="M4" s="13">
+      <c r="N4" s="15">
         <v>8.0</v>
       </c>
-      <c r="N4" s="14">
+      <c r="O4" s="16">
         <v>12.0</v>
       </c>
-      <c r="O4" s="15">
+      <c r="P4" s="17">
         <v>16.0</v>
       </c>
-      <c r="P4" s="15">
+      <c r="Q4" s="17">
         <v>20.0</v>
       </c>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -770,53 +852,56 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" ht="60.75" customHeight="1">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
       </c>
-      <c r="H5" s="9">
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12">
         <v>6.0</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="8" t="s">
-        <v>30</v>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="L5" s="12">
+      <c r="J5" s="1"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="14">
         <v>3.0</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="15">
         <v>6.0</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="15">
         <v>9.0</v>
       </c>
-      <c r="O5" s="14">
+      <c r="P5" s="16">
         <v>12.0</v>
       </c>
-      <c r="P5" s="14">
+      <c r="Q5" s="16">
         <v>15.0</v>
       </c>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -826,53 +911,56 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" ht="45.0" customHeight="1">
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="M6" s="14">
         <v>2.0</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="14">
         <v>4.0</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="15">
         <v>6.0</v>
       </c>
-      <c r="O6" s="13">
+      <c r="P6" s="15">
         <v>8.0</v>
       </c>
-      <c r="P6" s="13">
+      <c r="Q6" s="15">
         <v>10.0</v>
       </c>
-      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -882,53 +970,56 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" ht="79.5" customHeight="1">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="M7" s="14">
         <v>1.0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="14">
         <v>2.0</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="14">
         <v>3.0</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="14">
         <v>4.0</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="14">
         <v>5.0</v>
       </c>
-      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -938,33 +1029,36 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" ht="45.0" customHeight="1">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="9">
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="20">
         <v>4.0</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -982,33 +1076,36 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
     </row>
     <row r="9" ht="73.5" customHeight="1">
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
       </c>
-      <c r="H9" s="9">
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="20">
         <v>5.0</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1026,17 +1123,36 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" ht="11.25" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" ht="51.75" customHeight="1">
+      <c r="A10" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1054,17 +1170,36 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" ht="11.25" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" ht="60.0" customHeight="1">
+      <c r="A11" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1082,17 +1217,36 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" ht="11.25" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" ht="48.75" customHeight="1">
+      <c r="A12" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1110,13 +1264,14 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
     </row>
     <row r="13" ht="11.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1138,6 +1293,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
     </row>
     <row r="14" ht="11.25" customHeight="1">
       <c r="A14" s="1"/>
@@ -1166,6 +1322,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
     <row r="15" ht="11.25" customHeight="1">
       <c r="A15" s="1"/>
@@ -1194,6 +1351,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
     </row>
     <row r="16" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
@@ -1222,6 +1380,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
     </row>
     <row r="17" ht="11.25" customHeight="1">
       <c r="A17" s="1"/>
@@ -1250,6 +1409,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
@@ -1278,6 +1438,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" ht="11.25" customHeight="1">
       <c r="A19" s="1"/>
@@ -1306,6 +1467,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
     </row>
     <row r="20" ht="11.25" customHeight="1">
       <c r="A20" s="1"/>
@@ -1334,6 +1496,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" ht="11.25" customHeight="1">
       <c r="A21" s="1"/>
@@ -1362,6 +1525,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
     </row>
     <row r="22" ht="11.25" customHeight="1">
       <c r="A22" s="1"/>
@@ -1390,6 +1554,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
@@ -1418,6 +1583,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
     <row r="24" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
@@ -1446,6 +1612,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" ht="11.25" customHeight="1">
       <c r="A25" s="1"/>
@@ -1474,6 +1641,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="26" ht="11.25" customHeight="1">
       <c r="A26" s="1"/>
@@ -1502,6 +1670,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" ht="11.25" customHeight="1">
       <c r="A27" s="1"/>
@@ -1530,6 +1699,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
     </row>
     <row r="28" ht="11.25" customHeight="1">
       <c r="A28" s="1"/>
@@ -1558,6 +1728,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" ht="11.25" customHeight="1">
       <c r="A29" s="1"/>
@@ -1586,6 +1757,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
     </row>
     <row r="30" ht="11.25" customHeight="1">
       <c r="A30" s="1"/>
@@ -1614,6 +1786,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
     <row r="31" ht="11.25" customHeight="1">
       <c r="A31" s="1"/>
@@ -1642,6 +1815,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
     </row>
     <row r="32" ht="11.25" customHeight="1">
       <c r="A32" s="1"/>
@@ -1670,6 +1844,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
     </row>
     <row r="33" ht="11.25" customHeight="1">
       <c r="A33" s="1"/>
@@ -1698,6 +1873,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
     </row>
     <row r="34" ht="11.25" customHeight="1">
       <c r="A34" s="1"/>
@@ -1726,6 +1902,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
     </row>
     <row r="35" ht="11.25" customHeight="1">
       <c r="A35" s="1"/>
@@ -1754,6 +1931,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
     </row>
     <row r="36" ht="11.25" customHeight="1">
       <c r="A36" s="1"/>
@@ -1782,6 +1960,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
     </row>
     <row r="37" ht="11.25" customHeight="1">
       <c r="A37" s="1"/>
@@ -1810,6 +1989,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
     </row>
     <row r="38" ht="11.25" customHeight="1">
       <c r="A38" s="1"/>
@@ -1838,6 +2018,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
     </row>
     <row r="39" ht="11.25" customHeight="1">
       <c r="A39" s="1"/>
@@ -1866,6 +2047,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
     </row>
     <row r="40" ht="11.25" customHeight="1">
       <c r="A40" s="1"/>
@@ -1894,6 +2076,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
     <row r="41" ht="11.25" customHeight="1">
       <c r="A41" s="1"/>
@@ -1922,6 +2105,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
     </row>
     <row r="42" ht="11.25" customHeight="1">
       <c r="A42" s="1"/>
@@ -1950,6 +2134,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
     </row>
     <row r="43" ht="11.25" customHeight="1">
       <c r="A43" s="1"/>
@@ -1978,6 +2163,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
     </row>
     <row r="44" ht="11.25" customHeight="1">
       <c r="A44" s="1"/>
@@ -2006,6 +2192,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
     </row>
     <row r="45" ht="11.25" customHeight="1">
       <c r="A45" s="1"/>
@@ -2034,6 +2221,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
     </row>
     <row r="46" ht="11.25" customHeight="1">
       <c r="A46" s="1"/>
@@ -2062,6 +2250,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
     </row>
     <row r="47" ht="11.25" customHeight="1">
       <c r="A47" s="1"/>
@@ -2090,6 +2279,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
     </row>
     <row r="48" ht="11.25" customHeight="1">
       <c r="A48" s="1"/>
@@ -2118,6 +2308,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
     </row>
     <row r="49" ht="11.25" customHeight="1">
       <c r="A49" s="1"/>
@@ -2146,6 +2337,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
     </row>
     <row r="50" ht="11.25" customHeight="1">
       <c r="A50" s="1"/>
@@ -2174,6 +2366,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
     </row>
     <row r="51" ht="11.25" customHeight="1">
       <c r="A51" s="1"/>
@@ -2202,6 +2395,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
     </row>
     <row r="52" ht="11.25" customHeight="1">
       <c r="A52" s="1"/>
@@ -2230,6 +2424,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
     </row>
     <row r="53" ht="11.25" customHeight="1">
       <c r="A53" s="1"/>
@@ -2258,6 +2453,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
     </row>
     <row r="54" ht="11.25" customHeight="1">
       <c r="A54" s="1"/>
@@ -2286,6 +2482,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
     </row>
     <row r="55" ht="11.25" customHeight="1">
       <c r="A55" s="1"/>
@@ -2314,6 +2511,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
     </row>
     <row r="56" ht="11.25" customHeight="1">
       <c r="A56" s="1"/>
@@ -2342,6 +2540,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
     </row>
     <row r="57" ht="11.25" customHeight="1">
       <c r="A57" s="1"/>
@@ -2370,6 +2569,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
     </row>
     <row r="58" ht="11.25" customHeight="1">
       <c r="A58" s="1"/>
@@ -2398,6 +2598,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
     </row>
     <row r="59" ht="11.25" customHeight="1">
       <c r="A59" s="1"/>
@@ -2426,6 +2627,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
     </row>
     <row r="60" ht="11.25" customHeight="1">
       <c r="A60" s="1"/>
@@ -2454,6 +2656,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
     </row>
     <row r="61" ht="11.25" customHeight="1">
       <c r="A61" s="1"/>
@@ -2482,6 +2685,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
     </row>
     <row r="62" ht="11.25" customHeight="1">
       <c r="A62" s="1"/>
@@ -2510,6 +2714,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
     </row>
     <row r="63" ht="11.25" customHeight="1">
       <c r="A63" s="1"/>
@@ -2538,6 +2743,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
     </row>
     <row r="64" ht="11.25" customHeight="1">
       <c r="A64" s="1"/>
@@ -2566,6 +2772,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
     </row>
     <row r="65" ht="11.25" customHeight="1">
       <c r="A65" s="1"/>
@@ -2594,6 +2801,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
     </row>
     <row r="66" ht="11.25" customHeight="1">
       <c r="A66" s="1"/>
@@ -2622,6 +2830,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
     </row>
     <row r="67" ht="11.25" customHeight="1">
       <c r="A67" s="1"/>
@@ -2650,6 +2859,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
     </row>
     <row r="68" ht="11.25" customHeight="1">
       <c r="A68" s="1"/>
@@ -2678,6 +2888,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
     </row>
     <row r="69" ht="11.25" customHeight="1">
       <c r="A69" s="1"/>
@@ -2706,6 +2917,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
     </row>
     <row r="70" ht="11.25" customHeight="1">
       <c r="A70" s="1"/>
@@ -2734,6 +2946,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
     </row>
     <row r="71" ht="11.25" customHeight="1">
       <c r="A71" s="1"/>
@@ -2762,6 +2975,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
     </row>
     <row r="72" ht="11.25" customHeight="1">
       <c r="A72" s="1"/>
@@ -2790,6 +3004,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
     </row>
     <row r="73" ht="11.25" customHeight="1">
       <c r="A73" s="1"/>
@@ -2818,6 +3033,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
     </row>
     <row r="74" ht="11.25" customHeight="1">
       <c r="A74" s="1"/>
@@ -2846,6 +3062,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
     </row>
     <row r="75" ht="11.25" customHeight="1">
       <c r="A75" s="1"/>
@@ -2874,6 +3091,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
     </row>
     <row r="76" ht="11.25" customHeight="1">
       <c r="A76" s="1"/>
@@ -2902,6 +3120,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
     </row>
     <row r="77" ht="11.25" customHeight="1">
       <c r="A77" s="1"/>
@@ -2930,6 +3149,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
     </row>
     <row r="78" ht="11.25" customHeight="1">
       <c r="A78" s="1"/>
@@ -2958,6 +3178,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
     </row>
     <row r="79" ht="11.25" customHeight="1">
       <c r="A79" s="1"/>
@@ -2986,6 +3207,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
     </row>
     <row r="80" ht="11.25" customHeight="1">
       <c r="A80" s="1"/>
@@ -3014,6 +3236,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
     </row>
     <row r="81" ht="11.25" customHeight="1">
       <c r="A81" s="1"/>
@@ -3042,6 +3265,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
     </row>
     <row r="82" ht="11.25" customHeight="1">
       <c r="A82" s="1"/>
@@ -3070,6 +3294,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
     </row>
     <row r="83" ht="11.25" customHeight="1">
       <c r="A83" s="1"/>
@@ -3098,6 +3323,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
     </row>
     <row r="84" ht="11.25" customHeight="1">
       <c r="A84" s="1"/>
@@ -3126,6 +3352,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
     </row>
     <row r="85" ht="11.25" customHeight="1">
       <c r="A85" s="1"/>
@@ -3154,6 +3381,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
     </row>
     <row r="86" ht="11.25" customHeight="1">
       <c r="A86" s="1"/>
@@ -3182,6 +3410,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
     </row>
     <row r="87" ht="11.25" customHeight="1">
       <c r="A87" s="1"/>
@@ -3210,6 +3439,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
     </row>
     <row r="88" ht="11.25" customHeight="1">
       <c r="A88" s="1"/>
@@ -3238,6 +3468,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
     </row>
     <row r="89" ht="11.25" customHeight="1">
       <c r="A89" s="1"/>
@@ -3266,6 +3497,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
     </row>
     <row r="90" ht="11.25" customHeight="1">
       <c r="A90" s="1"/>
@@ -3294,6 +3526,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
     </row>
     <row r="91" ht="11.25" customHeight="1">
       <c r="A91" s="1"/>
@@ -3322,6 +3555,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
     </row>
     <row r="92" ht="11.25" customHeight="1">
       <c r="A92" s="1"/>
@@ -3350,6 +3584,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
     </row>
     <row r="93" ht="11.25" customHeight="1">
       <c r="A93" s="1"/>
@@ -3378,6 +3613,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
     </row>
     <row r="94" ht="11.25" customHeight="1">
       <c r="A94" s="1"/>
@@ -3406,6 +3642,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
     </row>
     <row r="95" ht="11.25" customHeight="1">
       <c r="A95" s="1"/>
@@ -3434,6 +3671,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
     </row>
     <row r="96" ht="11.25" customHeight="1">
       <c r="A96" s="1"/>
@@ -3462,6 +3700,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
     </row>
     <row r="97" ht="11.25" customHeight="1">
       <c r="A97" s="1"/>
@@ -3490,6 +3729,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
     </row>
     <row r="98" ht="11.25" customHeight="1">
       <c r="A98" s="1"/>
@@ -3518,6 +3758,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
     </row>
     <row r="99" ht="11.25" customHeight="1">
       <c r="A99" s="1"/>
@@ -3546,6 +3787,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
     </row>
     <row r="100" ht="11.25" customHeight="1">
       <c r="A100" s="1"/>
@@ -3574,6 +3816,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
     </row>
     <row r="101" ht="11.25" customHeight="1">
       <c r="A101" s="1"/>
@@ -3602,6 +3845,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
     </row>
     <row r="102" ht="11.25" customHeight="1">
       <c r="A102" s="1"/>
@@ -3630,6 +3874,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
     </row>
     <row r="103" ht="11.25" customHeight="1">
       <c r="A103" s="1"/>
@@ -3658,6 +3903,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
     </row>
     <row r="104" ht="11.25" customHeight="1">
       <c r="A104" s="1"/>
@@ -3686,6 +3932,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
     </row>
     <row r="105" ht="11.25" customHeight="1">
       <c r="A105" s="1"/>
@@ -3714,6 +3961,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
     </row>
     <row r="106" ht="11.25" customHeight="1">
       <c r="A106" s="1"/>
@@ -3742,6 +3990,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
     </row>
     <row r="107" ht="11.25" customHeight="1">
       <c r="A107" s="1"/>
@@ -3770,6 +4019,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
     </row>
     <row r="108" ht="11.25" customHeight="1">
       <c r="A108" s="1"/>
@@ -3798,6 +4048,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
     </row>
     <row r="109" ht="11.25" customHeight="1">
       <c r="A109" s="1"/>
@@ -3826,6 +4077,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
     </row>
     <row r="110" ht="11.25" customHeight="1">
       <c r="A110" s="1"/>
@@ -3854,6 +4106,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
     </row>
     <row r="111" ht="11.25" customHeight="1">
       <c r="A111" s="1"/>
@@ -3882,6 +4135,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
     </row>
     <row r="112" ht="11.25" customHeight="1">
       <c r="A112" s="1"/>
@@ -3910,6 +4164,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
     </row>
     <row r="113" ht="11.25" customHeight="1">
       <c r="A113" s="1"/>
@@ -3938,6 +4193,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
     </row>
     <row r="114" ht="11.25" customHeight="1">
       <c r="A114" s="1"/>
@@ -3966,6 +4222,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
     </row>
     <row r="115" ht="11.25" customHeight="1">
       <c r="A115" s="1"/>
@@ -3994,6 +4251,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
     </row>
     <row r="116" ht="11.25" customHeight="1">
       <c r="A116" s="1"/>
@@ -4022,6 +4280,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
     </row>
     <row r="117" ht="11.25" customHeight="1">
       <c r="A117" s="1"/>
@@ -4050,6 +4309,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
     </row>
     <row r="118" ht="11.25" customHeight="1">
       <c r="A118" s="1"/>
@@ -4078,6 +4338,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
     </row>
     <row r="119" ht="11.25" customHeight="1">
       <c r="A119" s="1"/>
@@ -4106,6 +4367,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
     </row>
     <row r="120" ht="11.25" customHeight="1">
       <c r="A120" s="1"/>
@@ -4134,6 +4396,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
     </row>
     <row r="121" ht="11.25" customHeight="1">
       <c r="A121" s="1"/>
@@ -4162,6 +4425,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
     </row>
     <row r="122" ht="11.25" customHeight="1">
       <c r="A122" s="1"/>
@@ -4190,6 +4454,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
     </row>
     <row r="123" ht="11.25" customHeight="1">
       <c r="A123" s="1"/>
@@ -4218,6 +4483,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
     </row>
     <row r="124" ht="11.25" customHeight="1">
       <c r="A124" s="1"/>
@@ -4246,6 +4512,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
     </row>
     <row r="125" ht="11.25" customHeight="1">
       <c r="A125" s="1"/>
@@ -4274,6 +4541,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
     </row>
     <row r="126" ht="11.25" customHeight="1">
       <c r="A126" s="1"/>
@@ -4302,6 +4570,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
     </row>
     <row r="127" ht="11.25" customHeight="1">
       <c r="A127" s="1"/>
@@ -4330,6 +4599,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
     </row>
     <row r="128" ht="11.25" customHeight="1">
       <c r="A128" s="1"/>
@@ -4358,6 +4628,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
     </row>
     <row r="129" ht="11.25" customHeight="1">
       <c r="A129" s="1"/>
@@ -4386,6 +4657,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
     </row>
     <row r="130" ht="11.25" customHeight="1">
       <c r="A130" s="1"/>
@@ -4414,6 +4686,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
     </row>
     <row r="131" ht="11.25" customHeight="1">
       <c r="A131" s="1"/>
@@ -4442,6 +4715,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
     </row>
     <row r="132" ht="11.25" customHeight="1">
       <c r="A132" s="1"/>
@@ -4470,6 +4744,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
     </row>
     <row r="133" ht="11.25" customHeight="1">
       <c r="A133" s="1"/>
@@ -4498,6 +4773,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
     </row>
     <row r="134" ht="11.25" customHeight="1">
       <c r="A134" s="1"/>
@@ -4526,6 +4802,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
     </row>
     <row r="135" ht="11.25" customHeight="1">
       <c r="A135" s="1"/>
@@ -4554,6 +4831,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
     </row>
     <row r="136" ht="11.25" customHeight="1">
       <c r="A136" s="1"/>
@@ -4582,6 +4860,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
     </row>
     <row r="137" ht="11.25" customHeight="1">
       <c r="A137" s="1"/>
@@ -4610,6 +4889,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
     </row>
     <row r="138" ht="11.25" customHeight="1">
       <c r="A138" s="1"/>
@@ -4638,6 +4918,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
     </row>
     <row r="139" ht="11.25" customHeight="1">
       <c r="A139" s="1"/>
@@ -4666,6 +4947,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
     </row>
     <row r="140" ht="11.25" customHeight="1">
       <c r="A140" s="1"/>
@@ -4694,6 +4976,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
     </row>
     <row r="141" ht="11.25" customHeight="1">
       <c r="A141" s="1"/>
@@ -4722,6 +5005,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
     </row>
     <row r="142" ht="11.25" customHeight="1">
       <c r="A142" s="1"/>
@@ -4750,6 +5034,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
     </row>
     <row r="143" ht="11.25" customHeight="1">
       <c r="A143" s="1"/>
@@ -4778,6 +5063,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
     </row>
     <row r="144" ht="11.25" customHeight="1">
       <c r="A144" s="1"/>
@@ -4806,6 +5092,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
     </row>
     <row r="145" ht="11.25" customHeight="1">
       <c r="A145" s="1"/>
@@ -4834,6 +5121,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
     </row>
     <row r="146" ht="11.25" customHeight="1">
       <c r="A146" s="1"/>
@@ -4862,6 +5150,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
     </row>
     <row r="147" ht="11.25" customHeight="1">
       <c r="A147" s="1"/>
@@ -4890,6 +5179,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
     </row>
     <row r="148" ht="11.25" customHeight="1">
       <c r="A148" s="1"/>
@@ -4918,6 +5208,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
     </row>
     <row r="149" ht="11.25" customHeight="1">
       <c r="A149" s="1"/>
@@ -4946,6 +5237,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
     </row>
     <row r="150" ht="11.25" customHeight="1">
       <c r="A150" s="1"/>
@@ -4974,6 +5266,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
     </row>
     <row r="151" ht="11.25" customHeight="1">
       <c r="A151" s="1"/>
@@ -5002,6 +5295,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
     </row>
     <row r="152" ht="11.25" customHeight="1">
       <c r="A152" s="1"/>
@@ -5030,6 +5324,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
     </row>
     <row r="153" ht="11.25" customHeight="1">
       <c r="A153" s="1"/>
@@ -5058,6 +5353,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
     </row>
     <row r="154" ht="11.25" customHeight="1">
       <c r="A154" s="1"/>
@@ -5086,6 +5382,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
+      <c r="AA154" s="1"/>
     </row>
     <row r="155" ht="11.25" customHeight="1">
       <c r="A155" s="1"/>
@@ -5114,6 +5411,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
     </row>
     <row r="156" ht="11.25" customHeight="1">
       <c r="A156" s="1"/>
@@ -5142,6 +5440,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
+      <c r="AA156" s="1"/>
     </row>
     <row r="157" ht="11.25" customHeight="1">
       <c r="A157" s="1"/>
@@ -5170,6 +5469,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
     </row>
     <row r="158" ht="11.25" customHeight="1">
       <c r="A158" s="1"/>
@@ -5198,6 +5498,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
     </row>
     <row r="159" ht="11.25" customHeight="1">
       <c r="A159" s="1"/>
@@ -5226,6 +5527,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
     </row>
     <row r="160" ht="11.25" customHeight="1">
       <c r="A160" s="1"/>
@@ -5254,6 +5556,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
     </row>
     <row r="161" ht="11.25" customHeight="1">
       <c r="A161" s="1"/>
@@ -5282,6 +5585,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
     </row>
     <row r="162" ht="11.25" customHeight="1">
       <c r="A162" s="1"/>
@@ -5310,6 +5614,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
     </row>
     <row r="163" ht="11.25" customHeight="1">
       <c r="A163" s="1"/>
@@ -5338,6 +5643,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
     </row>
     <row r="164" ht="11.25" customHeight="1">
       <c r="A164" s="1"/>
@@ -5366,6 +5672,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
     </row>
     <row r="165" ht="11.25" customHeight="1">
       <c r="A165" s="1"/>
@@ -5394,6 +5701,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
     </row>
     <row r="166" ht="11.25" customHeight="1">
       <c r="A166" s="1"/>
@@ -5422,6 +5730,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
     </row>
     <row r="167" ht="11.25" customHeight="1">
       <c r="A167" s="1"/>
@@ -5450,6 +5759,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
     </row>
     <row r="168" ht="11.25" customHeight="1">
       <c r="A168" s="1"/>
@@ -5478,6 +5788,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
     </row>
     <row r="169" ht="11.25" customHeight="1">
       <c r="A169" s="1"/>
@@ -5506,6 +5817,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
     </row>
     <row r="170" ht="11.25" customHeight="1">
       <c r="A170" s="1"/>
@@ -5534,6 +5846,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
     </row>
     <row r="171" ht="11.25" customHeight="1">
       <c r="A171" s="1"/>
@@ -5562,6 +5875,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
     </row>
     <row r="172" ht="11.25" customHeight="1">
       <c r="A172" s="1"/>
@@ -5590,6 +5904,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
+      <c r="AA172" s="1"/>
     </row>
     <row r="173" ht="11.25" customHeight="1">
       <c r="A173" s="1"/>
@@ -5618,6 +5933,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
+      <c r="AA173" s="1"/>
     </row>
     <row r="174" ht="11.25" customHeight="1">
       <c r="A174" s="1"/>
@@ -5646,6 +5962,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
+      <c r="AA174" s="1"/>
     </row>
     <row r="175" ht="11.25" customHeight="1">
       <c r="A175" s="1"/>
@@ -5674,6 +5991,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
     </row>
     <row r="176" ht="11.25" customHeight="1">
       <c r="A176" s="1"/>
@@ -5702,6 +6020,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
     </row>
     <row r="177" ht="11.25" customHeight="1">
       <c r="A177" s="1"/>
@@ -5730,6 +6049,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
     </row>
     <row r="178" ht="11.25" customHeight="1">
       <c r="A178" s="1"/>
@@ -5758,6 +6078,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
     </row>
     <row r="179" ht="11.25" customHeight="1">
       <c r="A179" s="1"/>
@@ -5786,6 +6107,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
     </row>
     <row r="180" ht="11.25" customHeight="1">
       <c r="A180" s="1"/>
@@ -5814,6 +6136,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
     </row>
     <row r="181" ht="11.25" customHeight="1">
       <c r="A181" s="1"/>
@@ -5842,6 +6165,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
     </row>
     <row r="182" ht="11.25" customHeight="1">
       <c r="A182" s="1"/>
@@ -5870,6 +6194,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
+      <c r="AA182" s="1"/>
     </row>
     <row r="183" ht="11.25" customHeight="1">
       <c r="A183" s="1"/>
@@ -5898,6 +6223,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
     </row>
     <row r="184" ht="11.25" customHeight="1">
       <c r="A184" s="1"/>
@@ -5926,6 +6252,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
     </row>
     <row r="185" ht="11.25" customHeight="1">
       <c r="A185" s="1"/>
@@ -5954,6 +6281,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
     </row>
     <row r="186" ht="11.25" customHeight="1">
       <c r="A186" s="1"/>
@@ -5982,6 +6310,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
+      <c r="AA186" s="1"/>
     </row>
     <row r="187" ht="11.25" customHeight="1">
       <c r="A187" s="1"/>
@@ -6010,6 +6339,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
+      <c r="AA187" s="1"/>
     </row>
     <row r="188" ht="11.25" customHeight="1">
       <c r="A188" s="1"/>
@@ -6038,6 +6368,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
     </row>
     <row r="189" ht="11.25" customHeight="1">
       <c r="A189" s="1"/>
@@ -6066,6 +6397,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
     </row>
     <row r="190" ht="11.25" customHeight="1">
       <c r="A190" s="1"/>
@@ -6094,6 +6426,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
+      <c r="AA190" s="1"/>
     </row>
     <row r="191" ht="11.25" customHeight="1">
       <c r="A191" s="1"/>
@@ -6122,6 +6455,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
     </row>
     <row r="192" ht="11.25" customHeight="1">
       <c r="A192" s="1"/>
@@ -6150,6 +6484,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
     </row>
     <row r="193" ht="11.25" customHeight="1">
       <c r="A193" s="1"/>
@@ -6178,6 +6513,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
     </row>
     <row r="194" ht="11.25" customHeight="1">
       <c r="A194" s="1"/>
@@ -6206,6 +6542,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
     </row>
     <row r="195" ht="11.25" customHeight="1">
       <c r="A195" s="1"/>
@@ -6234,6 +6571,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
     </row>
     <row r="196" ht="11.25" customHeight="1">
       <c r="A196" s="1"/>
@@ -6262,6 +6600,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
     </row>
     <row r="197" ht="11.25" customHeight="1">
       <c r="A197" s="1"/>
@@ -6290,6 +6629,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
     </row>
     <row r="198" ht="11.25" customHeight="1">
       <c r="A198" s="1"/>
@@ -6318,6 +6658,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
     </row>
     <row r="199" ht="11.25" customHeight="1">
       <c r="A199" s="1"/>
@@ -6346,6 +6687,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
     </row>
     <row r="200" ht="11.25" customHeight="1">
       <c r="A200" s="1"/>
@@ -6374,6 +6716,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
     </row>
     <row r="201" ht="11.25" customHeight="1">
       <c r="A201" s="1"/>
@@ -6402,6 +6745,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
     </row>
     <row r="202" ht="11.25" customHeight="1">
       <c r="A202" s="1"/>
@@ -6430,6 +6774,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
+      <c r="AA202" s="1"/>
     </row>
     <row r="203" ht="11.25" customHeight="1">
       <c r="A203" s="1"/>
@@ -6458,6 +6803,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
     </row>
     <row r="204" ht="11.25" customHeight="1">
       <c r="A204" s="1"/>
@@ -6486,6 +6832,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
     </row>
     <row r="205" ht="11.25" customHeight="1">
       <c r="A205" s="1"/>
@@ -6514,6 +6861,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
+      <c r="AA205" s="1"/>
     </row>
     <row r="206" ht="11.25" customHeight="1">
       <c r="A206" s="1"/>
@@ -6542,6 +6890,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
     </row>
     <row r="207" ht="11.25" customHeight="1">
       <c r="A207" s="1"/>
@@ -6570,6 +6919,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
+      <c r="AA207" s="1"/>
     </row>
     <row r="208" ht="11.25" customHeight="1">
       <c r="A208" s="1"/>
@@ -6598,6 +6948,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
+      <c r="AA208" s="1"/>
     </row>
     <row r="209" ht="11.25" customHeight="1">
       <c r="A209" s="1"/>
@@ -6626,6 +6977,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
     </row>
     <row r="210" ht="11.25" customHeight="1">
       <c r="A210" s="1"/>
@@ -6654,6 +7006,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
     </row>
     <row r="211" ht="11.25" customHeight="1">
       <c r="A211" s="1"/>
@@ -6682,6 +7035,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
     </row>
     <row r="212" ht="11.25" customHeight="1">
       <c r="A212" s="1"/>
@@ -6710,6 +7064,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
     </row>
     <row r="213" ht="11.25" customHeight="1">
       <c r="A213" s="1"/>
@@ -6738,6 +7093,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
     </row>
     <row r="214" ht="11.25" customHeight="1">
       <c r="A214" s="1"/>
@@ -6766,6 +7122,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
     </row>
     <row r="215" ht="11.25" customHeight="1">
       <c r="A215" s="1"/>
@@ -6794,6 +7151,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
+      <c r="AA215" s="1"/>
     </row>
     <row r="216" ht="11.25" customHeight="1">
       <c r="A216" s="1"/>
@@ -6822,6 +7180,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
     </row>
     <row r="217" ht="11.25" customHeight="1">
       <c r="A217" s="1"/>
@@ -6850,6 +7209,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
     </row>
     <row r="218" ht="11.25" customHeight="1">
       <c r="A218" s="1"/>
@@ -6878,6 +7238,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
+      <c r="AA218" s="1"/>
     </row>
     <row r="219" ht="11.25" customHeight="1">
       <c r="A219" s="1"/>
@@ -6906,6 +7267,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
     </row>
     <row r="220" ht="11.25" customHeight="1">
       <c r="A220" s="1"/>
@@ -6934,6 +7296,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
+      <c r="AA220" s="1"/>
     </row>
     <row r="221" ht="11.25" customHeight="1">
       <c r="A221" s="1"/>
@@ -6962,6 +7325,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
+      <c r="AA221" s="1"/>
     </row>
     <row r="222" ht="11.25" customHeight="1">
       <c r="A222" s="1"/>
@@ -6990,6 +7354,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
+      <c r="AA222" s="1"/>
     </row>
     <row r="223" ht="11.25" customHeight="1">
       <c r="A223" s="1"/>
@@ -7018,6 +7383,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
+      <c r="AA223" s="1"/>
     </row>
     <row r="224" ht="11.25" customHeight="1">
       <c r="A224" s="1"/>
@@ -7046,6 +7412,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
+      <c r="AA224" s="1"/>
     </row>
     <row r="225" ht="11.25" customHeight="1">
       <c r="A225" s="1"/>
@@ -7074,6 +7441,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
+      <c r="AA225" s="1"/>
     </row>
     <row r="226" ht="11.25" customHeight="1">
       <c r="A226" s="1"/>
@@ -7102,6 +7470,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
     </row>
     <row r="227" ht="11.25" customHeight="1">
       <c r="A227" s="1"/>
@@ -7130,6 +7499,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
     </row>
     <row r="228" ht="11.25" customHeight="1">
       <c r="A228" s="1"/>
@@ -7158,6 +7528,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
     </row>
     <row r="229" ht="11.25" customHeight="1">
       <c r="A229" s="1"/>
@@ -7186,6 +7557,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
     </row>
     <row r="230" ht="11.25" customHeight="1">
       <c r="A230" s="1"/>
@@ -7214,6 +7586,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
     </row>
     <row r="231" ht="11.25" customHeight="1">
       <c r="A231" s="1"/>
@@ -7242,6 +7615,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
     </row>
     <row r="232" ht="11.25" customHeight="1">
       <c r="A232" s="1"/>
@@ -7270,6 +7644,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
     </row>
     <row r="233" ht="11.25" customHeight="1">
       <c r="A233" s="1"/>
@@ -7298,6 +7673,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
     </row>
     <row r="234" ht="11.25" customHeight="1">
       <c r="A234" s="1"/>
@@ -7326,6 +7702,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
     </row>
     <row r="235" ht="11.25" customHeight="1">
       <c r="A235" s="1"/>
@@ -7354,6 +7731,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
     </row>
     <row r="236" ht="11.25" customHeight="1">
       <c r="A236" s="1"/>
@@ -7382,6 +7760,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
     </row>
     <row r="237" ht="11.25" customHeight="1">
       <c r="A237" s="1"/>
@@ -7410,6 +7789,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
     </row>
     <row r="238" ht="11.25" customHeight="1">
       <c r="A238" s="1"/>
@@ -7438,6 +7818,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
     </row>
     <row r="239" ht="11.25" customHeight="1">
       <c r="A239" s="1"/>
@@ -7466,6 +7847,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
     </row>
     <row r="240" ht="11.25" customHeight="1">
       <c r="A240" s="1"/>
@@ -7494,6 +7876,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
     </row>
     <row r="241" ht="11.25" customHeight="1">
       <c r="A241" s="1"/>
@@ -7522,6 +7905,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
     </row>
     <row r="242" ht="11.25" customHeight="1">
       <c r="A242" s="1"/>
@@ -7550,6 +7934,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
     </row>
     <row r="243" ht="11.25" customHeight="1">
       <c r="A243" s="1"/>
@@ -7578,6 +7963,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
     </row>
     <row r="244" ht="11.25" customHeight="1">
       <c r="A244" s="1"/>
@@ -7606,6 +7992,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
     </row>
     <row r="245" ht="11.25" customHeight="1">
       <c r="A245" s="1"/>
@@ -7634,6 +8021,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
     </row>
     <row r="246" ht="11.25" customHeight="1">
       <c r="A246" s="1"/>
@@ -7662,6 +8050,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
     </row>
     <row r="247" ht="11.25" customHeight="1">
       <c r="A247" s="1"/>
@@ -7690,6 +8079,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
     </row>
     <row r="248" ht="11.25" customHeight="1">
       <c r="A248" s="1"/>
@@ -7718,6 +8108,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
     </row>
     <row r="249" ht="11.25" customHeight="1">
       <c r="A249" s="1"/>
@@ -7746,6 +8137,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
     </row>
     <row r="250" ht="11.25" customHeight="1">
       <c r="A250" s="1"/>
@@ -7774,6 +8166,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
     </row>
     <row r="251" ht="11.25" customHeight="1">
       <c r="A251" s="1"/>
@@ -7802,6 +8195,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
     </row>
     <row r="252" ht="11.25" customHeight="1">
       <c r="A252" s="1"/>
@@ -7830,6 +8224,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
     </row>
     <row r="253" ht="11.25" customHeight="1">
       <c r="A253" s="1"/>
@@ -7858,6 +8253,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
     </row>
     <row r="254" ht="11.25" customHeight="1">
       <c r="A254" s="1"/>
@@ -7886,6 +8282,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
+      <c r="AA254" s="1"/>
     </row>
     <row r="255" ht="11.25" customHeight="1">
       <c r="A255" s="1"/>
@@ -7914,6 +8311,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
     </row>
     <row r="256" ht="11.25" customHeight="1">
       <c r="A256" s="1"/>
@@ -7942,6 +8340,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
     </row>
     <row r="257" ht="11.25" customHeight="1">
       <c r="A257" s="1"/>
@@ -7970,6 +8369,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
     </row>
     <row r="258" ht="11.25" customHeight="1">
       <c r="A258" s="1"/>
@@ -7998,6 +8398,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
     </row>
     <row r="259" ht="11.25" customHeight="1">
       <c r="A259" s="1"/>
@@ -8026,6 +8427,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
     </row>
     <row r="260" ht="11.25" customHeight="1">
       <c r="A260" s="1"/>
@@ -8054,6 +8456,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
     </row>
     <row r="261" ht="11.25" customHeight="1">
       <c r="A261" s="1"/>
@@ -8082,6 +8485,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
     </row>
     <row r="262" ht="11.25" customHeight="1">
       <c r="A262" s="1"/>
@@ -8110,6 +8514,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
     </row>
     <row r="263" ht="11.25" customHeight="1">
       <c r="A263" s="1"/>
@@ -8138,6 +8543,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
     </row>
     <row r="264" ht="11.25" customHeight="1">
       <c r="A264" s="1"/>
@@ -8166,6 +8572,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
     </row>
     <row r="265" ht="11.25" customHeight="1">
       <c r="A265" s="1"/>
@@ -8194,6 +8601,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
     </row>
     <row r="266" ht="11.25" customHeight="1">
       <c r="A266" s="1"/>
@@ -8222,6 +8630,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
     </row>
     <row r="267" ht="11.25" customHeight="1">
       <c r="A267" s="1"/>
@@ -8250,6 +8659,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
     </row>
     <row r="268" ht="11.25" customHeight="1">
       <c r="A268" s="1"/>
@@ -8278,6 +8688,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
+      <c r="AA268" s="1"/>
     </row>
     <row r="269" ht="11.25" customHeight="1">
       <c r="A269" s="1"/>
@@ -8306,6 +8717,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
+      <c r="AA269" s="1"/>
     </row>
     <row r="270" ht="11.25" customHeight="1">
       <c r="A270" s="1"/>
@@ -8334,6 +8746,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
+      <c r="AA270" s="1"/>
     </row>
     <row r="271" ht="11.25" customHeight="1">
       <c r="A271" s="1"/>
@@ -8362,6 +8775,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
+      <c r="AA271" s="1"/>
     </row>
     <row r="272" ht="11.25" customHeight="1">
       <c r="A272" s="1"/>
@@ -8390,6 +8804,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
     </row>
     <row r="273" ht="11.25" customHeight="1">
       <c r="A273" s="1"/>
@@ -8418,6 +8833,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
+      <c r="AA273" s="1"/>
     </row>
     <row r="274" ht="11.25" customHeight="1">
       <c r="A274" s="1"/>
@@ -8446,6 +8862,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
+      <c r="AA274" s="1"/>
     </row>
     <row r="275" ht="11.25" customHeight="1">
       <c r="A275" s="1"/>
@@ -8474,6 +8891,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
+      <c r="AA275" s="1"/>
     </row>
     <row r="276" ht="11.25" customHeight="1">
       <c r="A276" s="1"/>
@@ -8502,6 +8920,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
+      <c r="AA276" s="1"/>
     </row>
     <row r="277" ht="11.25" customHeight="1">
       <c r="A277" s="1"/>
@@ -8530,6 +8949,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
+      <c r="AA277" s="1"/>
     </row>
     <row r="278" ht="11.25" customHeight="1">
       <c r="A278" s="1"/>
@@ -8558,6 +8978,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
+      <c r="AA278" s="1"/>
     </row>
     <row r="279" ht="11.25" customHeight="1">
       <c r="A279" s="1"/>
@@ -8586,6 +9007,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
+      <c r="AA279" s="1"/>
     </row>
     <row r="280" ht="11.25" customHeight="1">
       <c r="A280" s="1"/>
@@ -8614,6 +9036,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
+      <c r="AA280" s="1"/>
     </row>
     <row r="281" ht="11.25" customHeight="1">
       <c r="A281" s="1"/>
@@ -8642,6 +9065,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
+      <c r="AA281" s="1"/>
     </row>
     <row r="282" ht="11.25" customHeight="1">
       <c r="A282" s="1"/>
@@ -8670,6 +9094,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
+      <c r="AA282" s="1"/>
     </row>
     <row r="283" ht="11.25" customHeight="1">
       <c r="A283" s="1"/>
@@ -8698,6 +9123,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
+      <c r="AA283" s="1"/>
     </row>
     <row r="284" ht="11.25" customHeight="1">
       <c r="A284" s="1"/>
@@ -8726,6 +9152,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
     </row>
     <row r="285" ht="11.25" customHeight="1">
       <c r="A285" s="1"/>
@@ -8754,6 +9181,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
+      <c r="AA285" s="1"/>
     </row>
     <row r="286" ht="11.25" customHeight="1">
       <c r="A286" s="1"/>
@@ -8782,6 +9210,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
+      <c r="AA286" s="1"/>
     </row>
     <row r="287" ht="11.25" customHeight="1">
       <c r="A287" s="1"/>
@@ -8810,6 +9239,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
     </row>
     <row r="288" ht="11.25" customHeight="1">
       <c r="A288" s="1"/>
@@ -8838,6 +9268,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
+      <c r="AA288" s="1"/>
     </row>
     <row r="289" ht="11.25" customHeight="1">
       <c r="A289" s="1"/>
@@ -8866,6 +9297,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
+      <c r="AA289" s="1"/>
     </row>
     <row r="290" ht="11.25" customHeight="1">
       <c r="A290" s="1"/>
@@ -8894,6 +9326,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
+      <c r="AA290" s="1"/>
     </row>
     <row r="291" ht="11.25" customHeight="1">
       <c r="A291" s="1"/>
@@ -8922,6 +9355,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
+      <c r="AA291" s="1"/>
     </row>
     <row r="292" ht="11.25" customHeight="1">
       <c r="A292" s="1"/>
@@ -8950,6 +9384,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
+      <c r="AA292" s="1"/>
     </row>
     <row r="293" ht="11.25" customHeight="1">
       <c r="A293" s="1"/>
@@ -8978,6 +9413,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
+      <c r="AA293" s="1"/>
     </row>
     <row r="294" ht="11.25" customHeight="1">
       <c r="A294" s="1"/>
@@ -9006,6 +9442,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
     </row>
     <row r="295" ht="11.25" customHeight="1">
       <c r="A295" s="1"/>
@@ -9034,6 +9471,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
+      <c r="AA295" s="1"/>
     </row>
     <row r="296" ht="11.25" customHeight="1">
       <c r="A296" s="1"/>
@@ -9062,6 +9500,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
+      <c r="AA296" s="1"/>
     </row>
     <row r="297" ht="11.25" customHeight="1">
       <c r="A297" s="1"/>
@@ -9090,6 +9529,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
+      <c r="AA297" s="1"/>
     </row>
     <row r="298" ht="11.25" customHeight="1">
       <c r="A298" s="1"/>
@@ -9118,6 +9558,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
+      <c r="AA298" s="1"/>
     </row>
     <row r="299" ht="11.25" customHeight="1">
       <c r="A299" s="1"/>
@@ -9146,6 +9587,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
+      <c r="AA299" s="1"/>
     </row>
     <row r="300" ht="11.25" customHeight="1">
       <c r="A300" s="1"/>
@@ -9174,6 +9616,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
+      <c r="AA300" s="1"/>
     </row>
     <row r="301" ht="11.25" customHeight="1">
       <c r="A301" s="1"/>
@@ -9202,6 +9645,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
+      <c r="AA301" s="1"/>
     </row>
     <row r="302" ht="11.25" customHeight="1">
       <c r="A302" s="1"/>
@@ -9230,6 +9674,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
+      <c r="AA302" s="1"/>
     </row>
     <row r="303" ht="11.25" customHeight="1">
       <c r="A303" s="1"/>
@@ -9258,6 +9703,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
+      <c r="AA303" s="1"/>
     </row>
     <row r="304" ht="11.25" customHeight="1">
       <c r="A304" s="1"/>
@@ -9286,6 +9732,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
+      <c r="AA304" s="1"/>
     </row>
     <row r="305" ht="11.25" customHeight="1">
       <c r="A305" s="1"/>
@@ -9314,6 +9761,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
+      <c r="AA305" s="1"/>
     </row>
     <row r="306" ht="11.25" customHeight="1">
       <c r="A306" s="1"/>
@@ -9342,6 +9790,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
+      <c r="AA306" s="1"/>
     </row>
     <row r="307" ht="11.25" customHeight="1">
       <c r="A307" s="1"/>
@@ -9370,6 +9819,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
+      <c r="AA307" s="1"/>
     </row>
     <row r="308" ht="11.25" customHeight="1">
       <c r="A308" s="1"/>
@@ -9398,6 +9848,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
+      <c r="AA308" s="1"/>
     </row>
     <row r="309" ht="11.25" customHeight="1">
       <c r="A309" s="1"/>
@@ -9426,6 +9877,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
+      <c r="AA309" s="1"/>
     </row>
     <row r="310" ht="11.25" customHeight="1">
       <c r="A310" s="1"/>
@@ -9454,6 +9906,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
+      <c r="AA310" s="1"/>
     </row>
     <row r="311" ht="11.25" customHeight="1">
       <c r="A311" s="1"/>
@@ -9482,6 +9935,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
+      <c r="AA311" s="1"/>
     </row>
     <row r="312" ht="11.25" customHeight="1">
       <c r="A312" s="1"/>
@@ -9510,6 +9964,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
+      <c r="AA312" s="1"/>
     </row>
     <row r="313" ht="11.25" customHeight="1">
       <c r="A313" s="1"/>
@@ -9538,6 +9993,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
+      <c r="AA313" s="1"/>
     </row>
     <row r="314" ht="11.25" customHeight="1">
       <c r="A314" s="1"/>
@@ -9566,6 +10022,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
+      <c r="AA314" s="1"/>
     </row>
     <row r="315" ht="11.25" customHeight="1">
       <c r="A315" s="1"/>
@@ -9594,6 +10051,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
+      <c r="AA315" s="1"/>
     </row>
     <row r="316" ht="11.25" customHeight="1">
       <c r="A316" s="1"/>
@@ -9622,6 +10080,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
+      <c r="AA316" s="1"/>
     </row>
     <row r="317" ht="11.25" customHeight="1">
       <c r="A317" s="1"/>
@@ -9650,6 +10109,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
+      <c r="AA317" s="1"/>
     </row>
     <row r="318" ht="11.25" customHeight="1">
       <c r="A318" s="1"/>
@@ -9678,6 +10138,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
+      <c r="AA318" s="1"/>
     </row>
     <row r="319" ht="11.25" customHeight="1">
       <c r="A319" s="1"/>
@@ -9706,6 +10167,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
+      <c r="AA319" s="1"/>
     </row>
     <row r="320" ht="11.25" customHeight="1">
       <c r="A320" s="1"/>
@@ -9734,6 +10196,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
+      <c r="AA320" s="1"/>
     </row>
     <row r="321" ht="11.25" customHeight="1">
       <c r="A321" s="1"/>
@@ -9762,6 +10225,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
+      <c r="AA321" s="1"/>
     </row>
     <row r="322" ht="11.25" customHeight="1">
       <c r="A322" s="1"/>
@@ -9790,6 +10254,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
+      <c r="AA322" s="1"/>
     </row>
     <row r="323" ht="11.25" customHeight="1">
       <c r="A323" s="1"/>
@@ -9818,6 +10283,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
+      <c r="AA323" s="1"/>
     </row>
     <row r="324" ht="11.25" customHeight="1">
       <c r="A324" s="1"/>
@@ -9846,6 +10312,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
+      <c r="AA324" s="1"/>
     </row>
     <row r="325" ht="11.25" customHeight="1">
       <c r="A325" s="1"/>
@@ -9874,6 +10341,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
+      <c r="AA325" s="1"/>
     </row>
     <row r="326" ht="11.25" customHeight="1">
       <c r="A326" s="1"/>
@@ -9902,6 +10370,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
+      <c r="AA326" s="1"/>
     </row>
     <row r="327" ht="11.25" customHeight="1">
       <c r="A327" s="1"/>
@@ -9930,6 +10399,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
+      <c r="AA327" s="1"/>
     </row>
     <row r="328" ht="11.25" customHeight="1">
       <c r="A328" s="1"/>
@@ -9958,6 +10428,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
+      <c r="AA328" s="1"/>
     </row>
     <row r="329" ht="11.25" customHeight="1">
       <c r="A329" s="1"/>
@@ -9986,6 +10457,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
+      <c r="AA329" s="1"/>
     </row>
     <row r="330" ht="11.25" customHeight="1">
       <c r="A330" s="1"/>
@@ -10014,6 +10486,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
+      <c r="AA330" s="1"/>
     </row>
     <row r="331" ht="11.25" customHeight="1">
       <c r="A331" s="1"/>
@@ -10042,6 +10515,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
+      <c r="AA331" s="1"/>
     </row>
     <row r="332" ht="11.25" customHeight="1">
       <c r="A332" s="1"/>
@@ -10070,6 +10544,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
+      <c r="AA332" s="1"/>
     </row>
     <row r="333" ht="11.25" customHeight="1">
       <c r="A333" s="1"/>
@@ -10098,6 +10573,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
+      <c r="AA333" s="1"/>
     </row>
     <row r="334" ht="11.25" customHeight="1">
       <c r="A334" s="1"/>
@@ -10126,6 +10602,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
+      <c r="AA334" s="1"/>
     </row>
     <row r="335" ht="11.25" customHeight="1">
       <c r="A335" s="1"/>
@@ -10154,6 +10631,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
+      <c r="AA335" s="1"/>
     </row>
     <row r="336" ht="11.25" customHeight="1">
       <c r="A336" s="1"/>
@@ -10182,6 +10660,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
+      <c r="AA336" s="1"/>
     </row>
     <row r="337" ht="11.25" customHeight="1">
       <c r="A337" s="1"/>
@@ -10210,6 +10689,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
+      <c r="AA337" s="1"/>
     </row>
     <row r="338" ht="11.25" customHeight="1">
       <c r="A338" s="1"/>
@@ -10238,6 +10718,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
+      <c r="AA338" s="1"/>
     </row>
     <row r="339" ht="11.25" customHeight="1">
       <c r="A339" s="1"/>
@@ -10266,6 +10747,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
+      <c r="AA339" s="1"/>
     </row>
     <row r="340" ht="11.25" customHeight="1">
       <c r="A340" s="1"/>
@@ -10294,6 +10776,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
+      <c r="AA340" s="1"/>
     </row>
     <row r="341" ht="11.25" customHeight="1">
       <c r="A341" s="1"/>
@@ -10322,6 +10805,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
+      <c r="AA341" s="1"/>
     </row>
     <row r="342" ht="11.25" customHeight="1">
       <c r="A342" s="1"/>
@@ -10350,6 +10834,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
+      <c r="AA342" s="1"/>
     </row>
     <row r="343" ht="11.25" customHeight="1">
       <c r="A343" s="1"/>
@@ -10378,6 +10863,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
+      <c r="AA343" s="1"/>
     </row>
     <row r="344" ht="11.25" customHeight="1">
       <c r="A344" s="1"/>
@@ -10406,6 +10892,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
+      <c r="AA344" s="1"/>
     </row>
     <row r="345" ht="11.25" customHeight="1">
       <c r="A345" s="1"/>
@@ -10434,6 +10921,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
+      <c r="AA345" s="1"/>
     </row>
     <row r="346" ht="11.25" customHeight="1">
       <c r="A346" s="1"/>
@@ -10462,6 +10950,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
+      <c r="AA346" s="1"/>
     </row>
     <row r="347" ht="11.25" customHeight="1">
       <c r="A347" s="1"/>
@@ -10490,6 +10979,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
+      <c r="AA347" s="1"/>
     </row>
     <row r="348" ht="11.25" customHeight="1">
       <c r="A348" s="1"/>
@@ -10518,6 +11008,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
+      <c r="AA348" s="1"/>
     </row>
     <row r="349" ht="11.25" customHeight="1">
       <c r="A349" s="1"/>
@@ -10546,6 +11037,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
+      <c r="AA349" s="1"/>
     </row>
     <row r="350" ht="11.25" customHeight="1">
       <c r="A350" s="1"/>
@@ -10574,6 +11066,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
+      <c r="AA350" s="1"/>
     </row>
     <row r="351" ht="11.25" customHeight="1">
       <c r="A351" s="1"/>
@@ -10602,6 +11095,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
+      <c r="AA351" s="1"/>
     </row>
     <row r="352" ht="11.25" customHeight="1">
       <c r="A352" s="1"/>
@@ -10630,6 +11124,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
+      <c r="AA352" s="1"/>
     </row>
     <row r="353" ht="11.25" customHeight="1">
       <c r="A353" s="1"/>
@@ -10658,6 +11153,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
+      <c r="AA353" s="1"/>
     </row>
     <row r="354" ht="11.25" customHeight="1">
       <c r="A354" s="1"/>
@@ -10686,6 +11182,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
+      <c r="AA354" s="1"/>
     </row>
     <row r="355" ht="11.25" customHeight="1">
       <c r="A355" s="1"/>
@@ -10714,6 +11211,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
+      <c r="AA355" s="1"/>
     </row>
     <row r="356" ht="11.25" customHeight="1">
       <c r="A356" s="1"/>
@@ -10742,6 +11240,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
+      <c r="AA356" s="1"/>
     </row>
     <row r="357" ht="11.25" customHeight="1">
       <c r="A357" s="1"/>
@@ -10770,6 +11269,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
+      <c r="AA357" s="1"/>
     </row>
     <row r="358" ht="11.25" customHeight="1">
       <c r="A358" s="1"/>
@@ -10798,6 +11298,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
+      <c r="AA358" s="1"/>
     </row>
     <row r="359" ht="11.25" customHeight="1">
       <c r="A359" s="1"/>
@@ -10826,6 +11327,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
+      <c r="AA359" s="1"/>
     </row>
     <row r="360" ht="11.25" customHeight="1">
       <c r="A360" s="1"/>
@@ -10854,6 +11356,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
+      <c r="AA360" s="1"/>
     </row>
     <row r="361" ht="11.25" customHeight="1">
       <c r="A361" s="1"/>
@@ -10882,6 +11385,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
+      <c r="AA361" s="1"/>
     </row>
     <row r="362" ht="11.25" customHeight="1">
       <c r="A362" s="1"/>
@@ -10910,6 +11414,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
+      <c r="AA362" s="1"/>
     </row>
     <row r="363" ht="11.25" customHeight="1">
       <c r="A363" s="1"/>
@@ -10938,6 +11443,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
+      <c r="AA363" s="1"/>
     </row>
     <row r="364" ht="11.25" customHeight="1">
       <c r="A364" s="1"/>
@@ -10966,6 +11472,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
+      <c r="AA364" s="1"/>
     </row>
     <row r="365" ht="11.25" customHeight="1">
       <c r="A365" s="1"/>
@@ -10994,6 +11501,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
+      <c r="AA365" s="1"/>
     </row>
     <row r="366" ht="11.25" customHeight="1">
       <c r="A366" s="1"/>
@@ -11022,6 +11530,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
+      <c r="AA366" s="1"/>
     </row>
     <row r="367" ht="11.25" customHeight="1">
       <c r="A367" s="1"/>
@@ -11050,6 +11559,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
+      <c r="AA367" s="1"/>
     </row>
     <row r="368" ht="11.25" customHeight="1">
       <c r="A368" s="1"/>
@@ -11078,6 +11588,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
+      <c r="AA368" s="1"/>
     </row>
     <row r="369" ht="11.25" customHeight="1">
       <c r="A369" s="1"/>
@@ -11106,6 +11617,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
+      <c r="AA369" s="1"/>
     </row>
     <row r="370" ht="11.25" customHeight="1">
       <c r="A370" s="1"/>
@@ -11134,6 +11646,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
+      <c r="AA370" s="1"/>
     </row>
     <row r="371" ht="11.25" customHeight="1">
       <c r="A371" s="1"/>
@@ -11162,6 +11675,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
+      <c r="AA371" s="1"/>
     </row>
     <row r="372" ht="11.25" customHeight="1">
       <c r="A372" s="1"/>
@@ -11190,6 +11704,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
+      <c r="AA372" s="1"/>
     </row>
     <row r="373" ht="11.25" customHeight="1">
       <c r="A373" s="1"/>
@@ -11218,6 +11733,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
+      <c r="AA373" s="1"/>
     </row>
     <row r="374" ht="11.25" customHeight="1">
       <c r="A374" s="1"/>
@@ -11246,6 +11762,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
+      <c r="AA374" s="1"/>
     </row>
     <row r="375" ht="11.25" customHeight="1">
       <c r="A375" s="1"/>
@@ -11274,6 +11791,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
+      <c r="AA375" s="1"/>
     </row>
     <row r="376" ht="11.25" customHeight="1">
       <c r="A376" s="1"/>
@@ -11302,6 +11820,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
+      <c r="AA376" s="1"/>
     </row>
     <row r="377" ht="11.25" customHeight="1">
       <c r="A377" s="1"/>
@@ -11330,6 +11849,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
+      <c r="AA377" s="1"/>
     </row>
     <row r="378" ht="11.25" customHeight="1">
       <c r="A378" s="1"/>
@@ -11358,6 +11878,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
+      <c r="AA378" s="1"/>
     </row>
     <row r="379" ht="11.25" customHeight="1">
       <c r="A379" s="1"/>
@@ -11386,6 +11907,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
+      <c r="AA379" s="1"/>
     </row>
     <row r="380" ht="11.25" customHeight="1">
       <c r="A380" s="1"/>
@@ -11414,6 +11936,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
+      <c r="AA380" s="1"/>
     </row>
     <row r="381" ht="11.25" customHeight="1">
       <c r="A381" s="1"/>
@@ -11442,6 +11965,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
+      <c r="AA381" s="1"/>
     </row>
     <row r="382" ht="11.25" customHeight="1">
       <c r="A382" s="1"/>
@@ -11470,6 +11994,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
+      <c r="AA382" s="1"/>
     </row>
     <row r="383" ht="11.25" customHeight="1">
       <c r="A383" s="1"/>
@@ -11498,6 +12023,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
+      <c r="AA383" s="1"/>
     </row>
     <row r="384" ht="11.25" customHeight="1">
       <c r="A384" s="1"/>
@@ -11526,6 +12052,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
+      <c r="AA384" s="1"/>
     </row>
     <row r="385" ht="11.25" customHeight="1">
       <c r="A385" s="1"/>
@@ -11554,6 +12081,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
+      <c r="AA385" s="1"/>
     </row>
     <row r="386" ht="11.25" customHeight="1">
       <c r="A386" s="1"/>
@@ -11582,6 +12110,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
+      <c r="AA386" s="1"/>
     </row>
     <row r="387" ht="11.25" customHeight="1">
       <c r="A387" s="1"/>
@@ -11610,6 +12139,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
+      <c r="AA387" s="1"/>
     </row>
     <row r="388" ht="11.25" customHeight="1">
       <c r="A388" s="1"/>
@@ -11638,6 +12168,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
+      <c r="AA388" s="1"/>
     </row>
     <row r="389" ht="11.25" customHeight="1">
       <c r="A389" s="1"/>
@@ -11666,6 +12197,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
+      <c r="AA389" s="1"/>
     </row>
     <row r="390" ht="11.25" customHeight="1">
       <c r="A390" s="1"/>
@@ -11694,6 +12226,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
+      <c r="AA390" s="1"/>
     </row>
     <row r="391" ht="11.25" customHeight="1">
       <c r="A391" s="1"/>
@@ -11722,6 +12255,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
+      <c r="AA391" s="1"/>
     </row>
     <row r="392" ht="11.25" customHeight="1">
       <c r="A392" s="1"/>
@@ -11750,6 +12284,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
+      <c r="AA392" s="1"/>
     </row>
     <row r="393" ht="11.25" customHeight="1">
       <c r="A393" s="1"/>
@@ -11778,6 +12313,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
+      <c r="AA393" s="1"/>
     </row>
     <row r="394" ht="11.25" customHeight="1">
       <c r="A394" s="1"/>
@@ -11806,6 +12342,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
+      <c r="AA394" s="1"/>
     </row>
     <row r="395" ht="11.25" customHeight="1">
       <c r="A395" s="1"/>
@@ -11834,6 +12371,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
+      <c r="AA395" s="1"/>
     </row>
     <row r="396" ht="11.25" customHeight="1">
       <c r="A396" s="1"/>
@@ -11862,6 +12400,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
+      <c r="AA396" s="1"/>
     </row>
     <row r="397" ht="11.25" customHeight="1">
       <c r="A397" s="1"/>
@@ -11890,6 +12429,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
+      <c r="AA397" s="1"/>
     </row>
     <row r="398" ht="11.25" customHeight="1">
       <c r="A398" s="1"/>
@@ -11918,6 +12458,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
+      <c r="AA398" s="1"/>
     </row>
     <row r="399" ht="11.25" customHeight="1">
       <c r="A399" s="1"/>
@@ -11946,6 +12487,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
+      <c r="AA399" s="1"/>
     </row>
     <row r="400" ht="11.25" customHeight="1">
       <c r="A400" s="1"/>
@@ -11974,6 +12516,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
+      <c r="AA400" s="1"/>
     </row>
     <row r="401" ht="11.25" customHeight="1">
       <c r="A401" s="1"/>
@@ -12002,6 +12545,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
+      <c r="AA401" s="1"/>
     </row>
     <row r="402" ht="11.25" customHeight="1">
       <c r="A402" s="1"/>
@@ -12030,6 +12574,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
+      <c r="AA402" s="1"/>
     </row>
     <row r="403" ht="11.25" customHeight="1">
       <c r="A403" s="1"/>
@@ -12058,6 +12603,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
+      <c r="AA403" s="1"/>
     </row>
     <row r="404" ht="11.25" customHeight="1">
       <c r="A404" s="1"/>
@@ -12086,6 +12632,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
+      <c r="AA404" s="1"/>
     </row>
     <row r="405" ht="11.25" customHeight="1">
       <c r="A405" s="1"/>
@@ -12114,6 +12661,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
+      <c r="AA405" s="1"/>
     </row>
     <row r="406" ht="11.25" customHeight="1">
       <c r="A406" s="1"/>
@@ -12142,6 +12690,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
+      <c r="AA406" s="1"/>
     </row>
     <row r="407" ht="11.25" customHeight="1">
       <c r="A407" s="1"/>
@@ -12170,6 +12719,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
+      <c r="AA407" s="1"/>
     </row>
     <row r="408" ht="11.25" customHeight="1">
       <c r="A408" s="1"/>
@@ -12198,6 +12748,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
+      <c r="AA408" s="1"/>
     </row>
     <row r="409" ht="11.25" customHeight="1">
       <c r="A409" s="1"/>
@@ -12226,6 +12777,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
+      <c r="AA409" s="1"/>
     </row>
     <row r="410" ht="11.25" customHeight="1">
       <c r="A410" s="1"/>
@@ -12254,6 +12806,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
+      <c r="AA410" s="1"/>
     </row>
     <row r="411" ht="11.25" customHeight="1">
       <c r="A411" s="1"/>
@@ -12282,6 +12835,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
+      <c r="AA411" s="1"/>
     </row>
     <row r="412" ht="11.25" customHeight="1">
       <c r="A412" s="1"/>
@@ -12310,6 +12864,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
+      <c r="AA412" s="1"/>
     </row>
     <row r="413" ht="11.25" customHeight="1">
       <c r="A413" s="1"/>
@@ -12338,6 +12893,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
+      <c r="AA413" s="1"/>
     </row>
     <row r="414" ht="11.25" customHeight="1">
       <c r="A414" s="1"/>
@@ -12366,6 +12922,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
+      <c r="AA414" s="1"/>
     </row>
     <row r="415" ht="11.25" customHeight="1">
       <c r="A415" s="1"/>
@@ -12394,6 +12951,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
+      <c r="AA415" s="1"/>
     </row>
     <row r="416" ht="11.25" customHeight="1">
       <c r="A416" s="1"/>
@@ -12422,6 +12980,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
+      <c r="AA416" s="1"/>
     </row>
     <row r="417" ht="11.25" customHeight="1">
       <c r="A417" s="1"/>
@@ -12450,6 +13009,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
+      <c r="AA417" s="1"/>
     </row>
     <row r="418" ht="11.25" customHeight="1">
       <c r="A418" s="1"/>
@@ -12478,6 +13038,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
+      <c r="AA418" s="1"/>
     </row>
     <row r="419" ht="11.25" customHeight="1">
       <c r="A419" s="1"/>
@@ -12506,6 +13067,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
+      <c r="AA419" s="1"/>
     </row>
     <row r="420" ht="11.25" customHeight="1">
       <c r="A420" s="1"/>
@@ -12534,6 +13096,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
+      <c r="AA420" s="1"/>
     </row>
     <row r="421" ht="11.25" customHeight="1">
       <c r="A421" s="1"/>
@@ -12562,6 +13125,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
+      <c r="AA421" s="1"/>
     </row>
     <row r="422" ht="11.25" customHeight="1">
       <c r="A422" s="1"/>
@@ -12590,6 +13154,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
+      <c r="AA422" s="1"/>
     </row>
     <row r="423" ht="11.25" customHeight="1">
       <c r="A423" s="1"/>
@@ -12618,6 +13183,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
+      <c r="AA423" s="1"/>
     </row>
     <row r="424" ht="11.25" customHeight="1">
       <c r="A424" s="1"/>
@@ -12646,6 +13212,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
+      <c r="AA424" s="1"/>
     </row>
     <row r="425" ht="11.25" customHeight="1">
       <c r="A425" s="1"/>
@@ -12674,6 +13241,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
+      <c r="AA425" s="1"/>
     </row>
     <row r="426" ht="11.25" customHeight="1">
       <c r="A426" s="1"/>
@@ -12702,6 +13270,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
+      <c r="AA426" s="1"/>
     </row>
     <row r="427" ht="11.25" customHeight="1">
       <c r="A427" s="1"/>
@@ -12730,6 +13299,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
+      <c r="AA427" s="1"/>
     </row>
     <row r="428" ht="11.25" customHeight="1">
       <c r="A428" s="1"/>
@@ -12758,6 +13328,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
+      <c r="AA428" s="1"/>
     </row>
     <row r="429" ht="11.25" customHeight="1">
       <c r="A429" s="1"/>
@@ -12786,6 +13357,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
+      <c r="AA429" s="1"/>
     </row>
     <row r="430" ht="11.25" customHeight="1">
       <c r="A430" s="1"/>
@@ -12814,6 +13386,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
+      <c r="AA430" s="1"/>
     </row>
     <row r="431" ht="11.25" customHeight="1">
       <c r="A431" s="1"/>
@@ -12842,6 +13415,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
+      <c r="AA431" s="1"/>
     </row>
     <row r="432" ht="11.25" customHeight="1">
       <c r="A432" s="1"/>
@@ -12870,6 +13444,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
+      <c r="AA432" s="1"/>
     </row>
     <row r="433" ht="11.25" customHeight="1">
       <c r="A433" s="1"/>
@@ -12898,6 +13473,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
+      <c r="AA433" s="1"/>
     </row>
     <row r="434" ht="11.25" customHeight="1">
       <c r="A434" s="1"/>
@@ -12926,6 +13502,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
+      <c r="AA434" s="1"/>
     </row>
     <row r="435" ht="11.25" customHeight="1">
       <c r="A435" s="1"/>
@@ -12954,6 +13531,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
+      <c r="AA435" s="1"/>
     </row>
     <row r="436" ht="11.25" customHeight="1">
       <c r="A436" s="1"/>
@@ -12982,6 +13560,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
+      <c r="AA436" s="1"/>
     </row>
     <row r="437" ht="11.25" customHeight="1">
       <c r="A437" s="1"/>
@@ -13010,6 +13589,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
+      <c r="AA437" s="1"/>
     </row>
     <row r="438" ht="11.25" customHeight="1">
       <c r="A438" s="1"/>
@@ -13038,6 +13618,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
+      <c r="AA438" s="1"/>
     </row>
     <row r="439" ht="11.25" customHeight="1">
       <c r="A439" s="1"/>
@@ -13066,6 +13647,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
+      <c r="AA439" s="1"/>
     </row>
     <row r="440" ht="11.25" customHeight="1">
       <c r="A440" s="1"/>
@@ -13094,6 +13676,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
+      <c r="AA440" s="1"/>
     </row>
     <row r="441" ht="11.25" customHeight="1">
       <c r="A441" s="1"/>
@@ -13122,6 +13705,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
+      <c r="AA441" s="1"/>
     </row>
     <row r="442" ht="11.25" customHeight="1">
       <c r="A442" s="1"/>
@@ -13150,6 +13734,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
+      <c r="AA442" s="1"/>
     </row>
     <row r="443" ht="11.25" customHeight="1">
       <c r="A443" s="1"/>
@@ -13178,6 +13763,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
+      <c r="AA443" s="1"/>
     </row>
     <row r="444" ht="11.25" customHeight="1">
       <c r="A444" s="1"/>
@@ -13206,6 +13792,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
+      <c r="AA444" s="1"/>
     </row>
     <row r="445" ht="11.25" customHeight="1">
       <c r="A445" s="1"/>
@@ -13234,6 +13821,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
+      <c r="AA445" s="1"/>
     </row>
     <row r="446" ht="11.25" customHeight="1">
       <c r="A446" s="1"/>
@@ -13262,6 +13850,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
+      <c r="AA446" s="1"/>
     </row>
     <row r="447" ht="11.25" customHeight="1">
       <c r="A447" s="1"/>
@@ -13290,6 +13879,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
+      <c r="AA447" s="1"/>
     </row>
     <row r="448" ht="11.25" customHeight="1">
       <c r="A448" s="1"/>
@@ -13318,6 +13908,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
+      <c r="AA448" s="1"/>
     </row>
     <row r="449" ht="11.25" customHeight="1">
       <c r="A449" s="1"/>
@@ -13346,6 +13937,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
+      <c r="AA449" s="1"/>
     </row>
     <row r="450" ht="11.25" customHeight="1">
       <c r="A450" s="1"/>
@@ -13374,6 +13966,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
+      <c r="AA450" s="1"/>
     </row>
     <row r="451" ht="11.25" customHeight="1">
       <c r="A451" s="1"/>
@@ -13402,6 +13995,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
+      <c r="AA451" s="1"/>
     </row>
     <row r="452" ht="11.25" customHeight="1">
       <c r="A452" s="1"/>
@@ -13430,6 +14024,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
+      <c r="AA452" s="1"/>
     </row>
     <row r="453" ht="11.25" customHeight="1">
       <c r="A453" s="1"/>
@@ -13458,6 +14053,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
+      <c r="AA453" s="1"/>
     </row>
     <row r="454" ht="11.25" customHeight="1">
       <c r="A454" s="1"/>
@@ -13486,6 +14082,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
+      <c r="AA454" s="1"/>
     </row>
     <row r="455" ht="11.25" customHeight="1">
       <c r="A455" s="1"/>
@@ -13514,6 +14111,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
+      <c r="AA455" s="1"/>
     </row>
     <row r="456" ht="11.25" customHeight="1">
       <c r="A456" s="1"/>
@@ -13542,6 +14140,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
+      <c r="AA456" s="1"/>
     </row>
     <row r="457" ht="11.25" customHeight="1">
       <c r="A457" s="1"/>
@@ -13570,6 +14169,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
+      <c r="AA457" s="1"/>
     </row>
     <row r="458" ht="11.25" customHeight="1">
       <c r="A458" s="1"/>
@@ -13598,6 +14198,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
+      <c r="AA458" s="1"/>
     </row>
     <row r="459" ht="11.25" customHeight="1">
       <c r="A459" s="1"/>
@@ -13626,6 +14227,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
+      <c r="AA459" s="1"/>
     </row>
     <row r="460" ht="11.25" customHeight="1">
       <c r="A460" s="1"/>
@@ -13654,6 +14256,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
+      <c r="AA460" s="1"/>
     </row>
     <row r="461" ht="11.25" customHeight="1">
       <c r="A461" s="1"/>
@@ -13682,6 +14285,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
+      <c r="AA461" s="1"/>
     </row>
     <row r="462" ht="11.25" customHeight="1">
       <c r="A462" s="1"/>
@@ -13710,6 +14314,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
+      <c r="AA462" s="1"/>
     </row>
     <row r="463" ht="11.25" customHeight="1">
       <c r="A463" s="1"/>
@@ -13738,6 +14343,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
+      <c r="AA463" s="1"/>
     </row>
     <row r="464" ht="11.25" customHeight="1">
       <c r="A464" s="1"/>
@@ -13766,6 +14372,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
+      <c r="AA464" s="1"/>
     </row>
     <row r="465" ht="11.25" customHeight="1">
       <c r="A465" s="1"/>
@@ -13794,6 +14401,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
+      <c r="AA465" s="1"/>
     </row>
     <row r="466" ht="11.25" customHeight="1">
       <c r="A466" s="1"/>
@@ -13822,6 +14430,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
+      <c r="AA466" s="1"/>
     </row>
     <row r="467" ht="11.25" customHeight="1">
       <c r="A467" s="1"/>
@@ -13850,6 +14459,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
+      <c r="AA467" s="1"/>
     </row>
     <row r="468" ht="11.25" customHeight="1">
       <c r="A468" s="1"/>
@@ -13878,6 +14488,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
+      <c r="AA468" s="1"/>
     </row>
     <row r="469" ht="11.25" customHeight="1">
       <c r="A469" s="1"/>
@@ -13906,6 +14517,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
+      <c r="AA469" s="1"/>
     </row>
     <row r="470" ht="11.25" customHeight="1">
       <c r="A470" s="1"/>
@@ -13934,6 +14546,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
+      <c r="AA470" s="1"/>
     </row>
     <row r="471" ht="11.25" customHeight="1">
       <c r="A471" s="1"/>
@@ -13962,6 +14575,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
+      <c r="AA471" s="1"/>
     </row>
     <row r="472" ht="11.25" customHeight="1">
       <c r="A472" s="1"/>
@@ -13990,6 +14604,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
+      <c r="AA472" s="1"/>
     </row>
     <row r="473" ht="11.25" customHeight="1">
       <c r="A473" s="1"/>
@@ -14018,6 +14633,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
+      <c r="AA473" s="1"/>
     </row>
     <row r="474" ht="11.25" customHeight="1">
       <c r="A474" s="1"/>
@@ -14046,6 +14662,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
+      <c r="AA474" s="1"/>
     </row>
     <row r="475" ht="11.25" customHeight="1">
       <c r="A475" s="1"/>
@@ -14074,6 +14691,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
+      <c r="AA475" s="1"/>
     </row>
     <row r="476" ht="11.25" customHeight="1">
       <c r="A476" s="1"/>
@@ -14102,6 +14720,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
+      <c r="AA476" s="1"/>
     </row>
     <row r="477" ht="11.25" customHeight="1">
       <c r="A477" s="1"/>
@@ -14130,6 +14749,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
+      <c r="AA477" s="1"/>
     </row>
     <row r="478" ht="11.25" customHeight="1">
       <c r="A478" s="1"/>
@@ -14158,6 +14778,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
+      <c r="AA478" s="1"/>
     </row>
     <row r="479" ht="11.25" customHeight="1">
       <c r="A479" s="1"/>
@@ -14186,6 +14807,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
+      <c r="AA479" s="1"/>
     </row>
     <row r="480" ht="11.25" customHeight="1">
       <c r="A480" s="1"/>
@@ -14214,6 +14836,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
+      <c r="AA480" s="1"/>
     </row>
     <row r="481" ht="11.25" customHeight="1">
       <c r="A481" s="1"/>
@@ -14242,6 +14865,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
+      <c r="AA481" s="1"/>
     </row>
     <row r="482" ht="11.25" customHeight="1">
       <c r="A482" s="1"/>
@@ -14270,6 +14894,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
+      <c r="AA482" s="1"/>
     </row>
     <row r="483" ht="11.25" customHeight="1">
       <c r="A483" s="1"/>
@@ -14298,6 +14923,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
+      <c r="AA483" s="1"/>
     </row>
     <row r="484" ht="11.25" customHeight="1">
       <c r="A484" s="1"/>
@@ -14326,6 +14952,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
+      <c r="AA484" s="1"/>
     </row>
     <row r="485" ht="11.25" customHeight="1">
       <c r="A485" s="1"/>
@@ -14354,6 +14981,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
+      <c r="AA485" s="1"/>
     </row>
     <row r="486" ht="11.25" customHeight="1">
       <c r="A486" s="1"/>
@@ -14382,6 +15010,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
+      <c r="AA486" s="1"/>
     </row>
     <row r="487" ht="11.25" customHeight="1">
       <c r="A487" s="1"/>
@@ -14410,6 +15039,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
+      <c r="AA487" s="1"/>
     </row>
     <row r="488" ht="11.25" customHeight="1">
       <c r="A488" s="1"/>
@@ -14438,6 +15068,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
+      <c r="AA488" s="1"/>
     </row>
     <row r="489" ht="11.25" customHeight="1">
       <c r="A489" s="1"/>
@@ -14466,6 +15097,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
+      <c r="AA489" s="1"/>
     </row>
     <row r="490" ht="11.25" customHeight="1">
       <c r="A490" s="1"/>
@@ -14494,6 +15126,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
+      <c r="AA490" s="1"/>
     </row>
     <row r="491" ht="11.25" customHeight="1">
       <c r="A491" s="1"/>
@@ -14522,6 +15155,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
+      <c r="AA491" s="1"/>
     </row>
     <row r="492" ht="11.25" customHeight="1">
       <c r="A492" s="1"/>
@@ -14550,6 +15184,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
+      <c r="AA492" s="1"/>
     </row>
     <row r="493" ht="11.25" customHeight="1">
       <c r="A493" s="1"/>
@@ -14578,6 +15213,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
+      <c r="AA493" s="1"/>
     </row>
     <row r="494" ht="11.25" customHeight="1">
       <c r="A494" s="1"/>
@@ -14606,6 +15242,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
+      <c r="AA494" s="1"/>
     </row>
     <row r="495" ht="11.25" customHeight="1">
       <c r="A495" s="1"/>
@@ -14634,6 +15271,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
+      <c r="AA495" s="1"/>
     </row>
     <row r="496" ht="11.25" customHeight="1">
       <c r="A496" s="1"/>
@@ -14662,6 +15300,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
+      <c r="AA496" s="1"/>
     </row>
     <row r="497" ht="11.25" customHeight="1">
       <c r="A497" s="1"/>
@@ -14690,6 +15329,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
+      <c r="AA497" s="1"/>
     </row>
     <row r="498" ht="11.25" customHeight="1">
       <c r="A498" s="1"/>
@@ -14718,6 +15358,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
+      <c r="AA498" s="1"/>
     </row>
     <row r="499" ht="11.25" customHeight="1">
       <c r="A499" s="1"/>
@@ -14746,6 +15387,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
+      <c r="AA499" s="1"/>
     </row>
     <row r="500" ht="11.25" customHeight="1">
       <c r="A500" s="1"/>
@@ -14774,6 +15416,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
+      <c r="AA500" s="1"/>
     </row>
     <row r="501" ht="11.25" customHeight="1">
       <c r="A501" s="1"/>
@@ -14802,6 +15445,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
+      <c r="AA501" s="1"/>
     </row>
     <row r="502" ht="11.25" customHeight="1">
       <c r="A502" s="1"/>
@@ -14830,6 +15474,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
+      <c r="AA502" s="1"/>
     </row>
     <row r="503" ht="11.25" customHeight="1">
       <c r="A503" s="1"/>
@@ -14858,6 +15503,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
+      <c r="AA503" s="1"/>
     </row>
     <row r="504" ht="11.25" customHeight="1">
       <c r="A504" s="1"/>
@@ -14886,6 +15532,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
+      <c r="AA504" s="1"/>
     </row>
     <row r="505" ht="11.25" customHeight="1">
       <c r="A505" s="1"/>
@@ -14914,6 +15561,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
+      <c r="AA505" s="1"/>
     </row>
     <row r="506" ht="11.25" customHeight="1">
       <c r="A506" s="1"/>
@@ -14942,6 +15590,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
+      <c r="AA506" s="1"/>
     </row>
     <row r="507" ht="11.25" customHeight="1">
       <c r="A507" s="1"/>
@@ -14970,6 +15619,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
+      <c r="AA507" s="1"/>
     </row>
     <row r="508" ht="11.25" customHeight="1">
       <c r="A508" s="1"/>
@@ -14998,6 +15648,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
+      <c r="AA508" s="1"/>
     </row>
     <row r="509" ht="11.25" customHeight="1">
       <c r="A509" s="1"/>
@@ -15026,6 +15677,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
+      <c r="AA509" s="1"/>
     </row>
     <row r="510" ht="11.25" customHeight="1">
       <c r="A510" s="1"/>
@@ -15054,6 +15706,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
+      <c r="AA510" s="1"/>
     </row>
     <row r="511" ht="11.25" customHeight="1">
       <c r="A511" s="1"/>
@@ -15082,6 +15735,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
+      <c r="AA511" s="1"/>
     </row>
     <row r="512" ht="11.25" customHeight="1">
       <c r="A512" s="1"/>
@@ -15110,6 +15764,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
+      <c r="AA512" s="1"/>
     </row>
     <row r="513" ht="11.25" customHeight="1">
       <c r="A513" s="1"/>
@@ -15138,6 +15793,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
+      <c r="AA513" s="1"/>
     </row>
     <row r="514" ht="11.25" customHeight="1">
       <c r="A514" s="1"/>
@@ -15166,6 +15822,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
+      <c r="AA514" s="1"/>
     </row>
     <row r="515" ht="11.25" customHeight="1">
       <c r="A515" s="1"/>
@@ -15194,6 +15851,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
+      <c r="AA515" s="1"/>
     </row>
     <row r="516" ht="11.25" customHeight="1">
       <c r="A516" s="1"/>
@@ -15222,6 +15880,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
+      <c r="AA516" s="1"/>
     </row>
     <row r="517" ht="11.25" customHeight="1">
       <c r="A517" s="1"/>
@@ -15250,6 +15909,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
+      <c r="AA517" s="1"/>
     </row>
     <row r="518" ht="11.25" customHeight="1">
       <c r="A518" s="1"/>
@@ -15278,6 +15938,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
+      <c r="AA518" s="1"/>
     </row>
     <row r="519" ht="11.25" customHeight="1">
       <c r="A519" s="1"/>
@@ -15306,6 +15967,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
+      <c r="AA519" s="1"/>
     </row>
     <row r="520" ht="11.25" customHeight="1">
       <c r="A520" s="1"/>
@@ -15334,6 +15996,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
+      <c r="AA520" s="1"/>
     </row>
     <row r="521" ht="11.25" customHeight="1">
       <c r="A521" s="1"/>
@@ -15362,6 +16025,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
+      <c r="AA521" s="1"/>
     </row>
     <row r="522" ht="11.25" customHeight="1">
       <c r="A522" s="1"/>
@@ -15390,6 +16054,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
+      <c r="AA522" s="1"/>
     </row>
     <row r="523" ht="11.25" customHeight="1">
       <c r="A523" s="1"/>
@@ -15418,6 +16083,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
+      <c r="AA523" s="1"/>
     </row>
     <row r="524" ht="11.25" customHeight="1">
       <c r="A524" s="1"/>
@@ -15446,6 +16112,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
+      <c r="AA524" s="1"/>
     </row>
     <row r="525" ht="11.25" customHeight="1">
       <c r="A525" s="1"/>
@@ -15474,6 +16141,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
+      <c r="AA525" s="1"/>
     </row>
     <row r="526" ht="11.25" customHeight="1">
       <c r="A526" s="1"/>
@@ -15502,6 +16170,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
+      <c r="AA526" s="1"/>
     </row>
     <row r="527" ht="11.25" customHeight="1">
       <c r="A527" s="1"/>
@@ -15530,6 +16199,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
+      <c r="AA527" s="1"/>
     </row>
     <row r="528" ht="11.25" customHeight="1">
       <c r="A528" s="1"/>
@@ -15558,6 +16228,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
+      <c r="AA528" s="1"/>
     </row>
     <row r="529" ht="11.25" customHeight="1">
       <c r="A529" s="1"/>
@@ -15586,6 +16257,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
+      <c r="AA529" s="1"/>
     </row>
     <row r="530" ht="11.25" customHeight="1">
       <c r="A530" s="1"/>
@@ -15614,6 +16286,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
+      <c r="AA530" s="1"/>
     </row>
     <row r="531" ht="11.25" customHeight="1">
       <c r="A531" s="1"/>
@@ -15642,6 +16315,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
+      <c r="AA531" s="1"/>
     </row>
     <row r="532" ht="11.25" customHeight="1">
       <c r="A532" s="1"/>
@@ -15670,6 +16344,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
+      <c r="AA532" s="1"/>
     </row>
     <row r="533" ht="11.25" customHeight="1">
       <c r="A533" s="1"/>
@@ -15698,6 +16373,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
+      <c r="AA533" s="1"/>
     </row>
     <row r="534" ht="11.25" customHeight="1">
       <c r="A534" s="1"/>
@@ -15726,6 +16402,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
+      <c r="AA534" s="1"/>
     </row>
     <row r="535" ht="11.25" customHeight="1">
       <c r="A535" s="1"/>
@@ -15754,6 +16431,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
+      <c r="AA535" s="1"/>
     </row>
     <row r="536" ht="11.25" customHeight="1">
       <c r="A536" s="1"/>
@@ -15782,6 +16460,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
+      <c r="AA536" s="1"/>
     </row>
     <row r="537" ht="11.25" customHeight="1">
       <c r="A537" s="1"/>
@@ -15810,6 +16489,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
+      <c r="AA537" s="1"/>
     </row>
     <row r="538" ht="11.25" customHeight="1">
       <c r="A538" s="1"/>
@@ -15838,6 +16518,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
+      <c r="AA538" s="1"/>
     </row>
     <row r="539" ht="11.25" customHeight="1">
       <c r="A539" s="1"/>
@@ -15866,6 +16547,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
+      <c r="AA539" s="1"/>
     </row>
     <row r="540" ht="11.25" customHeight="1">
       <c r="A540" s="1"/>
@@ -15894,6 +16576,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
+      <c r="AA540" s="1"/>
     </row>
     <row r="541" ht="11.25" customHeight="1">
       <c r="A541" s="1"/>
@@ -15922,6 +16605,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
+      <c r="AA541" s="1"/>
     </row>
     <row r="542" ht="11.25" customHeight="1">
       <c r="A542" s="1"/>
@@ -15950,6 +16634,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
+      <c r="AA542" s="1"/>
     </row>
     <row r="543" ht="11.25" customHeight="1">
       <c r="A543" s="1"/>
@@ -15978,6 +16663,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
+      <c r="AA543" s="1"/>
     </row>
     <row r="544" ht="11.25" customHeight="1">
       <c r="A544" s="1"/>
@@ -16006,6 +16692,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
+      <c r="AA544" s="1"/>
     </row>
     <row r="545" ht="11.25" customHeight="1">
       <c r="A545" s="1"/>
@@ -16034,6 +16721,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
+      <c r="AA545" s="1"/>
     </row>
     <row r="546" ht="11.25" customHeight="1">
       <c r="A546" s="1"/>
@@ -16062,6 +16750,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
+      <c r="AA546" s="1"/>
     </row>
     <row r="547" ht="11.25" customHeight="1">
       <c r="A547" s="1"/>
@@ -16090,6 +16779,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
+      <c r="AA547" s="1"/>
     </row>
     <row r="548" ht="11.25" customHeight="1">
       <c r="A548" s="1"/>
@@ -16118,6 +16808,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
+      <c r="AA548" s="1"/>
     </row>
     <row r="549" ht="11.25" customHeight="1">
       <c r="A549" s="1"/>
@@ -16146,6 +16837,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
+      <c r="AA549" s="1"/>
     </row>
     <row r="550" ht="11.25" customHeight="1">
       <c r="A550" s="1"/>
@@ -16174,6 +16866,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
+      <c r="AA550" s="1"/>
     </row>
     <row r="551" ht="11.25" customHeight="1">
       <c r="A551" s="1"/>
@@ -16202,6 +16895,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
+      <c r="AA551" s="1"/>
     </row>
     <row r="552" ht="11.25" customHeight="1">
       <c r="A552" s="1"/>
@@ -16230,6 +16924,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
+      <c r="AA552" s="1"/>
     </row>
     <row r="553" ht="11.25" customHeight="1">
       <c r="A553" s="1"/>
@@ -16258,6 +16953,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
+      <c r="AA553" s="1"/>
     </row>
     <row r="554" ht="11.25" customHeight="1">
       <c r="A554" s="1"/>
@@ -16286,6 +16982,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
+      <c r="AA554" s="1"/>
     </row>
     <row r="555" ht="11.25" customHeight="1">
       <c r="A555" s="1"/>
@@ -16314,6 +17011,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
+      <c r="AA555" s="1"/>
     </row>
     <row r="556" ht="11.25" customHeight="1">
       <c r="A556" s="1"/>
@@ -16342,6 +17040,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
+      <c r="AA556" s="1"/>
     </row>
     <row r="557" ht="11.25" customHeight="1">
       <c r="A557" s="1"/>
@@ -16370,6 +17069,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
+      <c r="AA557" s="1"/>
     </row>
     <row r="558" ht="11.25" customHeight="1">
       <c r="A558" s="1"/>
@@ -16398,6 +17098,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
+      <c r="AA558" s="1"/>
     </row>
     <row r="559" ht="11.25" customHeight="1">
       <c r="A559" s="1"/>
@@ -16426,6 +17127,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
+      <c r="AA559" s="1"/>
     </row>
     <row r="560" ht="11.25" customHeight="1">
       <c r="A560" s="1"/>
@@ -16454,6 +17156,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
+      <c r="AA560" s="1"/>
     </row>
     <row r="561" ht="11.25" customHeight="1">
       <c r="A561" s="1"/>
@@ -16482,6 +17185,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
+      <c r="AA561" s="1"/>
     </row>
     <row r="562" ht="11.25" customHeight="1">
       <c r="A562" s="1"/>
@@ -16510,6 +17214,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
+      <c r="AA562" s="1"/>
     </row>
     <row r="563" ht="11.25" customHeight="1">
       <c r="A563" s="1"/>
@@ -16538,6 +17243,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
+      <c r="AA563" s="1"/>
     </row>
     <row r="564" ht="11.25" customHeight="1">
       <c r="A564" s="1"/>
@@ -16566,6 +17272,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
+      <c r="AA564" s="1"/>
     </row>
     <row r="565" ht="11.25" customHeight="1">
       <c r="A565" s="1"/>
@@ -16594,6 +17301,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
+      <c r="AA565" s="1"/>
     </row>
     <row r="566" ht="11.25" customHeight="1">
       <c r="A566" s="1"/>
@@ -16622,6 +17330,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
+      <c r="AA566" s="1"/>
     </row>
     <row r="567" ht="11.25" customHeight="1">
       <c r="A567" s="1"/>
@@ -16650,6 +17359,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
+      <c r="AA567" s="1"/>
     </row>
     <row r="568" ht="11.25" customHeight="1">
       <c r="A568" s="1"/>
@@ -16678,6 +17388,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
+      <c r="AA568" s="1"/>
     </row>
     <row r="569" ht="11.25" customHeight="1">
       <c r="A569" s="1"/>
@@ -16706,6 +17417,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
+      <c r="AA569" s="1"/>
     </row>
     <row r="570" ht="11.25" customHeight="1">
       <c r="A570" s="1"/>
@@ -16734,6 +17446,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
+      <c r="AA570" s="1"/>
     </row>
     <row r="571" ht="11.25" customHeight="1">
       <c r="A571" s="1"/>
@@ -16762,6 +17475,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
+      <c r="AA571" s="1"/>
     </row>
     <row r="572" ht="11.25" customHeight="1">
       <c r="A572" s="1"/>
@@ -16790,6 +17504,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
+      <c r="AA572" s="1"/>
     </row>
     <row r="573" ht="11.25" customHeight="1">
       <c r="A573" s="1"/>
@@ -16818,6 +17533,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
+      <c r="AA573" s="1"/>
     </row>
     <row r="574" ht="11.25" customHeight="1">
       <c r="A574" s="1"/>
@@ -16846,6 +17562,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
+      <c r="AA574" s="1"/>
     </row>
     <row r="575" ht="11.25" customHeight="1">
       <c r="A575" s="1"/>
@@ -16874,6 +17591,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
+      <c r="AA575" s="1"/>
     </row>
     <row r="576" ht="11.25" customHeight="1">
       <c r="A576" s="1"/>
@@ -16902,6 +17620,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
+      <c r="AA576" s="1"/>
     </row>
     <row r="577" ht="11.25" customHeight="1">
       <c r="A577" s="1"/>
@@ -16930,6 +17649,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
+      <c r="AA577" s="1"/>
     </row>
     <row r="578" ht="11.25" customHeight="1">
       <c r="A578" s="1"/>
@@ -16958,6 +17678,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
+      <c r="AA578" s="1"/>
     </row>
     <row r="579" ht="11.25" customHeight="1">
       <c r="A579" s="1"/>
@@ -16986,6 +17707,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
+      <c r="AA579" s="1"/>
     </row>
     <row r="580" ht="11.25" customHeight="1">
       <c r="A580" s="1"/>
@@ -17014,6 +17736,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
+      <c r="AA580" s="1"/>
     </row>
     <row r="581" ht="11.25" customHeight="1">
       <c r="A581" s="1"/>
@@ -17042,6 +17765,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
+      <c r="AA581" s="1"/>
     </row>
     <row r="582" ht="11.25" customHeight="1">
       <c r="A582" s="1"/>
@@ -17070,6 +17794,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
+      <c r="AA582" s="1"/>
     </row>
     <row r="583" ht="11.25" customHeight="1">
       <c r="A583" s="1"/>
@@ -17098,6 +17823,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
+      <c r="AA583" s="1"/>
     </row>
     <row r="584" ht="11.25" customHeight="1">
       <c r="A584" s="1"/>
@@ -17126,6 +17852,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
+      <c r="AA584" s="1"/>
     </row>
     <row r="585" ht="11.25" customHeight="1">
       <c r="A585" s="1"/>
@@ -17154,6 +17881,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
+      <c r="AA585" s="1"/>
     </row>
     <row r="586" ht="11.25" customHeight="1">
       <c r="A586" s="1"/>
@@ -17182,6 +17910,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
+      <c r="AA586" s="1"/>
     </row>
     <row r="587" ht="11.25" customHeight="1">
       <c r="A587" s="1"/>
@@ -17210,6 +17939,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
+      <c r="AA587" s="1"/>
     </row>
     <row r="588" ht="11.25" customHeight="1">
       <c r="A588" s="1"/>
@@ -17238,6 +17968,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
+      <c r="AA588" s="1"/>
     </row>
     <row r="589" ht="11.25" customHeight="1">
       <c r="A589" s="1"/>
@@ -17266,6 +17997,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
+      <c r="AA589" s="1"/>
     </row>
     <row r="590" ht="11.25" customHeight="1">
       <c r="A590" s="1"/>
@@ -17294,6 +18026,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
+      <c r="AA590" s="1"/>
     </row>
     <row r="591" ht="11.25" customHeight="1">
       <c r="A591" s="1"/>
@@ -17322,6 +18055,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
+      <c r="AA591" s="1"/>
     </row>
     <row r="592" ht="11.25" customHeight="1">
       <c r="A592" s="1"/>
@@ -17350,6 +18084,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
+      <c r="AA592" s="1"/>
     </row>
     <row r="593" ht="11.25" customHeight="1">
       <c r="A593" s="1"/>
@@ -17378,6 +18113,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
+      <c r="AA593" s="1"/>
     </row>
     <row r="594" ht="11.25" customHeight="1">
       <c r="A594" s="1"/>
@@ -17406,6 +18142,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
+      <c r="AA594" s="1"/>
     </row>
     <row r="595" ht="11.25" customHeight="1">
       <c r="A595" s="1"/>
@@ -17434,6 +18171,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
+      <c r="AA595" s="1"/>
     </row>
     <row r="596" ht="11.25" customHeight="1">
       <c r="A596" s="1"/>
@@ -17462,6 +18200,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
+      <c r="AA596" s="1"/>
     </row>
     <row r="597" ht="11.25" customHeight="1">
       <c r="A597" s="1"/>
@@ -17490,6 +18229,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
+      <c r="AA597" s="1"/>
     </row>
     <row r="598" ht="11.25" customHeight="1">
       <c r="A598" s="1"/>
@@ -17518,6 +18258,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
+      <c r="AA598" s="1"/>
     </row>
     <row r="599" ht="11.25" customHeight="1">
       <c r="A599" s="1"/>
@@ -17546,6 +18287,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
+      <c r="AA599" s="1"/>
     </row>
     <row r="600" ht="11.25" customHeight="1">
       <c r="A600" s="1"/>
@@ -17574,6 +18316,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
+      <c r="AA600" s="1"/>
     </row>
     <row r="601" ht="11.25" customHeight="1">
       <c r="A601" s="1"/>
@@ -17602,6 +18345,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
+      <c r="AA601" s="1"/>
     </row>
     <row r="602" ht="11.25" customHeight="1">
       <c r="A602" s="1"/>
@@ -17630,6 +18374,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
+      <c r="AA602" s="1"/>
     </row>
     <row r="603" ht="11.25" customHeight="1">
       <c r="A603" s="1"/>
@@ -17658,6 +18403,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
+      <c r="AA603" s="1"/>
     </row>
     <row r="604" ht="11.25" customHeight="1">
       <c r="A604" s="1"/>
@@ -17686,6 +18432,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
+      <c r="AA604" s="1"/>
     </row>
     <row r="605" ht="11.25" customHeight="1">
       <c r="A605" s="1"/>
@@ -17714,6 +18461,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
+      <c r="AA605" s="1"/>
     </row>
     <row r="606" ht="11.25" customHeight="1">
       <c r="A606" s="1"/>
@@ -17742,6 +18490,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
+      <c r="AA606" s="1"/>
     </row>
     <row r="607" ht="11.25" customHeight="1">
       <c r="A607" s="1"/>
@@ -17770,6 +18519,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
+      <c r="AA607" s="1"/>
     </row>
     <row r="608" ht="11.25" customHeight="1">
       <c r="A608" s="1"/>
@@ -17798,6 +18548,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
+      <c r="AA608" s="1"/>
     </row>
     <row r="609" ht="11.25" customHeight="1">
       <c r="A609" s="1"/>
@@ -17826,6 +18577,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
+      <c r="AA609" s="1"/>
     </row>
     <row r="610" ht="11.25" customHeight="1">
       <c r="A610" s="1"/>
@@ -17854,6 +18606,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
+      <c r="AA610" s="1"/>
     </row>
     <row r="611" ht="11.25" customHeight="1">
       <c r="A611" s="1"/>
@@ -17882,6 +18635,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
+      <c r="AA611" s="1"/>
     </row>
     <row r="612" ht="11.25" customHeight="1">
       <c r="A612" s="1"/>
@@ -17910,6 +18664,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
+      <c r="AA612" s="1"/>
     </row>
     <row r="613" ht="11.25" customHeight="1">
       <c r="A613" s="1"/>
@@ -17938,6 +18693,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
+      <c r="AA613" s="1"/>
     </row>
     <row r="614" ht="11.25" customHeight="1">
       <c r="A614" s="1"/>
@@ -17966,6 +18722,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
+      <c r="AA614" s="1"/>
     </row>
     <row r="615" ht="11.25" customHeight="1">
       <c r="A615" s="1"/>
@@ -17994,6 +18751,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
+      <c r="AA615" s="1"/>
     </row>
     <row r="616" ht="11.25" customHeight="1">
       <c r="A616" s="1"/>
@@ -18022,6 +18780,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
+      <c r="AA616" s="1"/>
     </row>
     <row r="617" ht="11.25" customHeight="1">
       <c r="A617" s="1"/>
@@ -18050,6 +18809,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
+      <c r="AA617" s="1"/>
     </row>
     <row r="618" ht="11.25" customHeight="1">
       <c r="A618" s="1"/>
@@ -18078,6 +18838,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
+      <c r="AA618" s="1"/>
     </row>
     <row r="619" ht="11.25" customHeight="1">
       <c r="A619" s="1"/>
@@ -18106,6 +18867,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
+      <c r="AA619" s="1"/>
     </row>
     <row r="620" ht="11.25" customHeight="1">
       <c r="A620" s="1"/>
@@ -18134,6 +18896,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
+      <c r="AA620" s="1"/>
     </row>
     <row r="621" ht="11.25" customHeight="1">
       <c r="A621" s="1"/>
@@ -18162,6 +18925,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
+      <c r="AA621" s="1"/>
     </row>
     <row r="622" ht="11.25" customHeight="1">
       <c r="A622" s="1"/>
@@ -18190,6 +18954,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
+      <c r="AA622" s="1"/>
     </row>
     <row r="623" ht="11.25" customHeight="1">
       <c r="A623" s="1"/>
@@ -18218,6 +18983,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
+      <c r="AA623" s="1"/>
     </row>
     <row r="624" ht="11.25" customHeight="1">
       <c r="A624" s="1"/>
@@ -18246,6 +19012,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
+      <c r="AA624" s="1"/>
     </row>
     <row r="625" ht="11.25" customHeight="1">
       <c r="A625" s="1"/>
@@ -18274,6 +19041,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
+      <c r="AA625" s="1"/>
     </row>
     <row r="626" ht="11.25" customHeight="1">
       <c r="A626" s="1"/>
@@ -18302,6 +19070,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
+      <c r="AA626" s="1"/>
     </row>
     <row r="627" ht="11.25" customHeight="1">
       <c r="A627" s="1"/>
@@ -18330,6 +19099,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
+      <c r="AA627" s="1"/>
     </row>
     <row r="628" ht="11.25" customHeight="1">
       <c r="A628" s="1"/>
@@ -18358,6 +19128,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
+      <c r="AA628" s="1"/>
     </row>
     <row r="629" ht="11.25" customHeight="1">
       <c r="A629" s="1"/>
@@ -18386,6 +19157,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
+      <c r="AA629" s="1"/>
     </row>
     <row r="630" ht="11.25" customHeight="1">
       <c r="A630" s="1"/>
@@ -18414,6 +19186,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
+      <c r="AA630" s="1"/>
     </row>
     <row r="631" ht="11.25" customHeight="1">
       <c r="A631" s="1"/>
@@ -18442,6 +19215,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
+      <c r="AA631" s="1"/>
     </row>
     <row r="632" ht="11.25" customHeight="1">
       <c r="A632" s="1"/>
@@ -18470,6 +19244,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
+      <c r="AA632" s="1"/>
     </row>
     <row r="633" ht="11.25" customHeight="1">
       <c r="A633" s="1"/>
@@ -18498,6 +19273,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
+      <c r="AA633" s="1"/>
     </row>
     <row r="634" ht="11.25" customHeight="1">
       <c r="A634" s="1"/>
@@ -18526,6 +19302,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
+      <c r="AA634" s="1"/>
     </row>
     <row r="635" ht="11.25" customHeight="1">
       <c r="A635" s="1"/>
@@ -18554,6 +19331,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
+      <c r="AA635" s="1"/>
     </row>
     <row r="636" ht="11.25" customHeight="1">
       <c r="A636" s="1"/>
@@ -18582,6 +19360,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
+      <c r="AA636" s="1"/>
     </row>
     <row r="637" ht="11.25" customHeight="1">
       <c r="A637" s="1"/>
@@ -18610,6 +19389,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
+      <c r="AA637" s="1"/>
     </row>
     <row r="638" ht="11.25" customHeight="1">
       <c r="A638" s="1"/>
@@ -18638,6 +19418,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
+      <c r="AA638" s="1"/>
     </row>
     <row r="639" ht="11.25" customHeight="1">
       <c r="A639" s="1"/>
@@ -18666,6 +19447,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
+      <c r="AA639" s="1"/>
     </row>
     <row r="640" ht="11.25" customHeight="1">
       <c r="A640" s="1"/>
@@ -18694,6 +19476,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
+      <c r="AA640" s="1"/>
     </row>
     <row r="641" ht="11.25" customHeight="1">
       <c r="A641" s="1"/>
@@ -18722,6 +19505,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
+      <c r="AA641" s="1"/>
     </row>
     <row r="642" ht="11.25" customHeight="1">
       <c r="A642" s="1"/>
@@ -18750,6 +19534,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
+      <c r="AA642" s="1"/>
     </row>
     <row r="643" ht="11.25" customHeight="1">
       <c r="A643" s="1"/>
@@ -18778,6 +19563,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
+      <c r="AA643" s="1"/>
     </row>
     <row r="644" ht="11.25" customHeight="1">
       <c r="A644" s="1"/>
@@ -18806,6 +19592,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
+      <c r="AA644" s="1"/>
     </row>
     <row r="645" ht="11.25" customHeight="1">
       <c r="A645" s="1"/>
@@ -18834,6 +19621,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
+      <c r="AA645" s="1"/>
     </row>
     <row r="646" ht="11.25" customHeight="1">
       <c r="A646" s="1"/>
@@ -18862,6 +19650,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
+      <c r="AA646" s="1"/>
     </row>
     <row r="647" ht="11.25" customHeight="1">
       <c r="A647" s="1"/>
@@ -18890,6 +19679,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
+      <c r="AA647" s="1"/>
     </row>
     <row r="648" ht="11.25" customHeight="1">
       <c r="A648" s="1"/>
@@ -18918,6 +19708,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
+      <c r="AA648" s="1"/>
     </row>
     <row r="649" ht="11.25" customHeight="1">
       <c r="A649" s="1"/>
@@ -18946,6 +19737,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
+      <c r="AA649" s="1"/>
     </row>
     <row r="650" ht="11.25" customHeight="1">
       <c r="A650" s="1"/>
@@ -18974,6 +19766,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
+      <c r="AA650" s="1"/>
     </row>
     <row r="651" ht="11.25" customHeight="1">
       <c r="A651" s="1"/>
@@ -19002,6 +19795,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
+      <c r="AA651" s="1"/>
     </row>
     <row r="652" ht="11.25" customHeight="1">
       <c r="A652" s="1"/>
@@ -19030,6 +19824,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
+      <c r="AA652" s="1"/>
     </row>
     <row r="653" ht="11.25" customHeight="1">
       <c r="A653" s="1"/>
@@ -19058,6 +19853,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
+      <c r="AA653" s="1"/>
     </row>
     <row r="654" ht="11.25" customHeight="1">
       <c r="A654" s="1"/>
@@ -19086,6 +19882,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
+      <c r="AA654" s="1"/>
     </row>
     <row r="655" ht="11.25" customHeight="1">
       <c r="A655" s="1"/>
@@ -19114,6 +19911,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
+      <c r="AA655" s="1"/>
     </row>
     <row r="656" ht="11.25" customHeight="1">
       <c r="A656" s="1"/>
@@ -19142,6 +19940,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
+      <c r="AA656" s="1"/>
     </row>
     <row r="657" ht="11.25" customHeight="1">
       <c r="A657" s="1"/>
@@ -19170,6 +19969,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
+      <c r="AA657" s="1"/>
     </row>
     <row r="658" ht="11.25" customHeight="1">
       <c r="A658" s="1"/>
@@ -19198,6 +19998,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
+      <c r="AA658" s="1"/>
     </row>
     <row r="659" ht="11.25" customHeight="1">
       <c r="A659" s="1"/>
@@ -19226,6 +20027,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
+      <c r="AA659" s="1"/>
     </row>
     <row r="660" ht="11.25" customHeight="1">
       <c r="A660" s="1"/>
@@ -19254,6 +20056,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
+      <c r="AA660" s="1"/>
     </row>
     <row r="661" ht="11.25" customHeight="1">
       <c r="A661" s="1"/>
@@ -19282,6 +20085,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
+      <c r="AA661" s="1"/>
     </row>
     <row r="662" ht="11.25" customHeight="1">
       <c r="A662" s="1"/>
@@ -19310,6 +20114,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
+      <c r="AA662" s="1"/>
     </row>
     <row r="663" ht="11.25" customHeight="1">
       <c r="A663" s="1"/>
@@ -19338,6 +20143,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
+      <c r="AA663" s="1"/>
     </row>
     <row r="664" ht="11.25" customHeight="1">
       <c r="A664" s="1"/>
@@ -19366,6 +20172,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
+      <c r="AA664" s="1"/>
     </row>
     <row r="665" ht="11.25" customHeight="1">
       <c r="A665" s="1"/>
@@ -19394,6 +20201,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
+      <c r="AA665" s="1"/>
     </row>
     <row r="666" ht="11.25" customHeight="1">
       <c r="A666" s="1"/>
@@ -19422,6 +20230,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
+      <c r="AA666" s="1"/>
     </row>
     <row r="667" ht="11.25" customHeight="1">
       <c r="A667" s="1"/>
@@ -19450,6 +20259,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
+      <c r="AA667" s="1"/>
     </row>
     <row r="668" ht="11.25" customHeight="1">
       <c r="A668" s="1"/>
@@ -19478,6 +20288,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
+      <c r="AA668" s="1"/>
     </row>
     <row r="669" ht="11.25" customHeight="1">
       <c r="A669" s="1"/>
@@ -19506,6 +20317,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
+      <c r="AA669" s="1"/>
     </row>
     <row r="670" ht="11.25" customHeight="1">
       <c r="A670" s="1"/>
@@ -19534,6 +20346,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
+      <c r="AA670" s="1"/>
     </row>
     <row r="671" ht="11.25" customHeight="1">
       <c r="A671" s="1"/>
@@ -19562,6 +20375,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
+      <c r="AA671" s="1"/>
     </row>
     <row r="672" ht="11.25" customHeight="1">
       <c r="A672" s="1"/>
@@ -19590,6 +20404,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
+      <c r="AA672" s="1"/>
     </row>
     <row r="673" ht="11.25" customHeight="1">
       <c r="A673" s="1"/>
@@ -19618,6 +20433,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
+      <c r="AA673" s="1"/>
     </row>
     <row r="674" ht="11.25" customHeight="1">
       <c r="A674" s="1"/>
@@ -19646,6 +20462,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
+      <c r="AA674" s="1"/>
     </row>
     <row r="675" ht="11.25" customHeight="1">
       <c r="A675" s="1"/>
@@ -19674,6 +20491,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
+      <c r="AA675" s="1"/>
     </row>
     <row r="676" ht="11.25" customHeight="1">
       <c r="A676" s="1"/>
@@ -19702,6 +20520,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
+      <c r="AA676" s="1"/>
     </row>
     <row r="677" ht="11.25" customHeight="1">
       <c r="A677" s="1"/>
@@ -19730,6 +20549,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
+      <c r="AA677" s="1"/>
     </row>
     <row r="678" ht="11.25" customHeight="1">
       <c r="A678" s="1"/>
@@ -19758,6 +20578,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
+      <c r="AA678" s="1"/>
     </row>
     <row r="679" ht="11.25" customHeight="1">
       <c r="A679" s="1"/>
@@ -19786,6 +20607,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
+      <c r="AA679" s="1"/>
     </row>
     <row r="680" ht="11.25" customHeight="1">
       <c r="A680" s="1"/>
@@ -19814,6 +20636,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
+      <c r="AA680" s="1"/>
     </row>
     <row r="681" ht="11.25" customHeight="1">
       <c r="A681" s="1"/>
@@ -19842,6 +20665,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
+      <c r="AA681" s="1"/>
     </row>
     <row r="682" ht="11.25" customHeight="1">
       <c r="A682" s="1"/>
@@ -19870,6 +20694,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
+      <c r="AA682" s="1"/>
     </row>
     <row r="683" ht="11.25" customHeight="1">
       <c r="A683" s="1"/>
@@ -19898,6 +20723,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
+      <c r="AA683" s="1"/>
     </row>
     <row r="684" ht="11.25" customHeight="1">
       <c r="A684" s="1"/>
@@ -19926,6 +20752,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
+      <c r="AA684" s="1"/>
     </row>
     <row r="685" ht="11.25" customHeight="1">
       <c r="A685" s="1"/>
@@ -19954,6 +20781,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
+      <c r="AA685" s="1"/>
     </row>
     <row r="686" ht="11.25" customHeight="1">
       <c r="A686" s="1"/>
@@ -19982,6 +20810,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
+      <c r="AA686" s="1"/>
     </row>
     <row r="687" ht="11.25" customHeight="1">
       <c r="A687" s="1"/>
@@ -20010,6 +20839,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
+      <c r="AA687" s="1"/>
     </row>
     <row r="688" ht="11.25" customHeight="1">
       <c r="A688" s="1"/>
@@ -20038,6 +20868,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
+      <c r="AA688" s="1"/>
     </row>
     <row r="689" ht="11.25" customHeight="1">
       <c r="A689" s="1"/>
@@ -20066,6 +20897,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
+      <c r="AA689" s="1"/>
     </row>
     <row r="690" ht="11.25" customHeight="1">
       <c r="A690" s="1"/>
@@ -20094,6 +20926,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
+      <c r="AA690" s="1"/>
     </row>
     <row r="691" ht="11.25" customHeight="1">
       <c r="A691" s="1"/>
@@ -20122,6 +20955,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
+      <c r="AA691" s="1"/>
     </row>
     <row r="692" ht="11.25" customHeight="1">
       <c r="A692" s="1"/>
@@ -20150,6 +20984,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
+      <c r="AA692" s="1"/>
     </row>
     <row r="693" ht="11.25" customHeight="1">
       <c r="A693" s="1"/>
@@ -20178,6 +21013,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
+      <c r="AA693" s="1"/>
     </row>
     <row r="694" ht="11.25" customHeight="1">
       <c r="A694" s="1"/>
@@ -20206,6 +21042,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
+      <c r="AA694" s="1"/>
     </row>
     <row r="695" ht="11.25" customHeight="1">
       <c r="A695" s="1"/>
@@ -20234,6 +21071,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
+      <c r="AA695" s="1"/>
     </row>
     <row r="696" ht="11.25" customHeight="1">
       <c r="A696" s="1"/>
@@ -20262,6 +21100,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
+      <c r="AA696" s="1"/>
     </row>
     <row r="697" ht="11.25" customHeight="1">
       <c r="A697" s="1"/>
@@ -20290,6 +21129,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
+      <c r="AA697" s="1"/>
     </row>
     <row r="698" ht="11.25" customHeight="1">
       <c r="A698" s="1"/>
@@ -20318,6 +21158,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
+      <c r="AA698" s="1"/>
     </row>
     <row r="699" ht="11.25" customHeight="1">
       <c r="A699" s="1"/>
@@ -20346,6 +21187,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
+      <c r="AA699" s="1"/>
     </row>
     <row r="700" ht="11.25" customHeight="1">
       <c r="A700" s="1"/>
@@ -20374,6 +21216,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
+      <c r="AA700" s="1"/>
     </row>
     <row r="701" ht="11.25" customHeight="1">
       <c r="A701" s="1"/>
@@ -20402,6 +21245,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
+      <c r="AA701" s="1"/>
     </row>
     <row r="702" ht="11.25" customHeight="1">
       <c r="A702" s="1"/>
@@ -20430,6 +21274,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
+      <c r="AA702" s="1"/>
     </row>
     <row r="703" ht="11.25" customHeight="1">
       <c r="A703" s="1"/>
@@ -20458,6 +21303,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
+      <c r="AA703" s="1"/>
     </row>
     <row r="704" ht="11.25" customHeight="1">
       <c r="A704" s="1"/>
@@ -20486,6 +21332,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
+      <c r="AA704" s="1"/>
     </row>
     <row r="705" ht="11.25" customHeight="1">
       <c r="A705" s="1"/>
@@ -20514,6 +21361,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
+      <c r="AA705" s="1"/>
     </row>
     <row r="706" ht="11.25" customHeight="1">
       <c r="A706" s="1"/>
@@ -20542,6 +21390,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
+      <c r="AA706" s="1"/>
     </row>
     <row r="707" ht="11.25" customHeight="1">
       <c r="A707" s="1"/>
@@ -20570,6 +21419,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
+      <c r="AA707" s="1"/>
     </row>
     <row r="708" ht="11.25" customHeight="1">
       <c r="A708" s="1"/>
@@ -20598,6 +21448,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
+      <c r="AA708" s="1"/>
     </row>
     <row r="709" ht="11.25" customHeight="1">
       <c r="A709" s="1"/>
@@ -20626,6 +21477,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
+      <c r="AA709" s="1"/>
     </row>
     <row r="710" ht="11.25" customHeight="1">
       <c r="A710" s="1"/>
@@ -20654,6 +21506,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
+      <c r="AA710" s="1"/>
     </row>
     <row r="711" ht="11.25" customHeight="1">
       <c r="A711" s="1"/>
@@ -20682,6 +21535,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
+      <c r="AA711" s="1"/>
     </row>
     <row r="712" ht="11.25" customHeight="1">
       <c r="A712" s="1"/>
@@ -20710,6 +21564,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
+      <c r="AA712" s="1"/>
     </row>
     <row r="713" ht="11.25" customHeight="1">
       <c r="A713" s="1"/>
@@ -20738,6 +21593,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
+      <c r="AA713" s="1"/>
     </row>
     <row r="714" ht="11.25" customHeight="1">
       <c r="A714" s="1"/>
@@ -20766,6 +21622,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
+      <c r="AA714" s="1"/>
     </row>
     <row r="715" ht="11.25" customHeight="1">
       <c r="A715" s="1"/>
@@ -20794,6 +21651,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
+      <c r="AA715" s="1"/>
     </row>
     <row r="716" ht="11.25" customHeight="1">
       <c r="A716" s="1"/>
@@ -20822,6 +21680,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
+      <c r="AA716" s="1"/>
     </row>
     <row r="717" ht="11.25" customHeight="1">
       <c r="A717" s="1"/>
@@ -20850,6 +21709,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
+      <c r="AA717" s="1"/>
     </row>
     <row r="718" ht="11.25" customHeight="1">
       <c r="A718" s="1"/>
@@ -20878,6 +21738,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
+      <c r="AA718" s="1"/>
     </row>
     <row r="719" ht="11.25" customHeight="1">
       <c r="A719" s="1"/>
@@ -20906,6 +21767,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
+      <c r="AA719" s="1"/>
     </row>
     <row r="720" ht="11.25" customHeight="1">
       <c r="A720" s="1"/>
@@ -20934,6 +21796,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
+      <c r="AA720" s="1"/>
     </row>
     <row r="721" ht="11.25" customHeight="1">
       <c r="A721" s="1"/>
@@ -20962,6 +21825,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
+      <c r="AA721" s="1"/>
     </row>
     <row r="722" ht="11.25" customHeight="1">
       <c r="A722" s="1"/>
@@ -20990,6 +21854,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
+      <c r="AA722" s="1"/>
     </row>
     <row r="723" ht="11.25" customHeight="1">
       <c r="A723" s="1"/>
@@ -21018,6 +21883,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
+      <c r="AA723" s="1"/>
     </row>
     <row r="724" ht="11.25" customHeight="1">
       <c r="A724" s="1"/>
@@ -21046,6 +21912,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
+      <c r="AA724" s="1"/>
     </row>
     <row r="725" ht="11.25" customHeight="1">
       <c r="A725" s="1"/>
@@ -21074,6 +21941,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
+      <c r="AA725" s="1"/>
     </row>
     <row r="726" ht="11.25" customHeight="1">
       <c r="A726" s="1"/>
@@ -21102,6 +21970,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
+      <c r="AA726" s="1"/>
     </row>
     <row r="727" ht="11.25" customHeight="1">
       <c r="A727" s="1"/>
@@ -21130,6 +21999,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
+      <c r="AA727" s="1"/>
     </row>
     <row r="728" ht="11.25" customHeight="1">
       <c r="A728" s="1"/>
@@ -21158,6 +22028,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
+      <c r="AA728" s="1"/>
     </row>
     <row r="729" ht="11.25" customHeight="1">
       <c r="A729" s="1"/>
@@ -21186,6 +22057,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
+      <c r="AA729" s="1"/>
     </row>
     <row r="730" ht="11.25" customHeight="1">
       <c r="A730" s="1"/>
@@ -21214,6 +22086,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
+      <c r="AA730" s="1"/>
     </row>
     <row r="731" ht="11.25" customHeight="1">
       <c r="A731" s="1"/>
@@ -21242,6 +22115,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
+      <c r="AA731" s="1"/>
     </row>
     <row r="732" ht="11.25" customHeight="1">
       <c r="A732" s="1"/>
@@ -21270,6 +22144,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
+      <c r="AA732" s="1"/>
     </row>
     <row r="733" ht="11.25" customHeight="1">
       <c r="A733" s="1"/>
@@ -21298,6 +22173,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
+      <c r="AA733" s="1"/>
     </row>
     <row r="734" ht="11.25" customHeight="1">
       <c r="A734" s="1"/>
@@ -21326,6 +22202,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
+      <c r="AA734" s="1"/>
     </row>
     <row r="735" ht="11.25" customHeight="1">
       <c r="A735" s="1"/>
@@ -21354,6 +22231,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
+      <c r="AA735" s="1"/>
     </row>
     <row r="736" ht="11.25" customHeight="1">
       <c r="A736" s="1"/>
@@ -21382,6 +22260,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
+      <c r="AA736" s="1"/>
     </row>
     <row r="737" ht="11.25" customHeight="1">
       <c r="A737" s="1"/>
@@ -21410,6 +22289,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
+      <c r="AA737" s="1"/>
     </row>
     <row r="738" ht="11.25" customHeight="1">
       <c r="A738" s="1"/>
@@ -21438,6 +22318,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
+      <c r="AA738" s="1"/>
     </row>
     <row r="739" ht="11.25" customHeight="1">
       <c r="A739" s="1"/>
@@ -21466,6 +22347,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
+      <c r="AA739" s="1"/>
     </row>
     <row r="740" ht="11.25" customHeight="1">
       <c r="A740" s="1"/>
@@ -21494,6 +22376,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
+      <c r="AA740" s="1"/>
     </row>
     <row r="741" ht="11.25" customHeight="1">
       <c r="A741" s="1"/>
@@ -21522,6 +22405,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
+      <c r="AA741" s="1"/>
     </row>
     <row r="742" ht="11.25" customHeight="1">
       <c r="A742" s="1"/>
@@ -21550,6 +22434,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
+      <c r="AA742" s="1"/>
     </row>
     <row r="743" ht="11.25" customHeight="1">
       <c r="A743" s="1"/>
@@ -21578,6 +22463,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
+      <c r="AA743" s="1"/>
     </row>
     <row r="744" ht="11.25" customHeight="1">
       <c r="A744" s="1"/>
@@ -21606,6 +22492,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
+      <c r="AA744" s="1"/>
     </row>
     <row r="745" ht="11.25" customHeight="1">
       <c r="A745" s="1"/>
@@ -21634,6 +22521,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
+      <c r="AA745" s="1"/>
     </row>
     <row r="746" ht="11.25" customHeight="1">
       <c r="A746" s="1"/>
@@ -21662,6 +22550,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
+      <c r="AA746" s="1"/>
     </row>
     <row r="747" ht="11.25" customHeight="1">
       <c r="A747" s="1"/>
@@ -21690,6 +22579,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
+      <c r="AA747" s="1"/>
     </row>
     <row r="748" ht="11.25" customHeight="1">
       <c r="A748" s="1"/>
@@ -21718,6 +22608,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
+      <c r="AA748" s="1"/>
     </row>
     <row r="749" ht="11.25" customHeight="1">
       <c r="A749" s="1"/>
@@ -21746,6 +22637,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
+      <c r="AA749" s="1"/>
     </row>
     <row r="750" ht="11.25" customHeight="1">
       <c r="A750" s="1"/>
@@ -21774,6 +22666,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
+      <c r="AA750" s="1"/>
     </row>
     <row r="751" ht="11.25" customHeight="1">
       <c r="A751" s="1"/>
@@ -21802,6 +22695,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
+      <c r="AA751" s="1"/>
     </row>
     <row r="752" ht="11.25" customHeight="1">
       <c r="A752" s="1"/>
@@ -21830,6 +22724,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
+      <c r="AA752" s="1"/>
     </row>
     <row r="753" ht="11.25" customHeight="1">
       <c r="A753" s="1"/>
@@ -21858,6 +22753,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
+      <c r="AA753" s="1"/>
     </row>
     <row r="754" ht="11.25" customHeight="1">
       <c r="A754" s="1"/>
@@ -21886,6 +22782,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
+      <c r="AA754" s="1"/>
     </row>
     <row r="755" ht="11.25" customHeight="1">
       <c r="A755" s="1"/>
@@ -21914,6 +22811,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
+      <c r="AA755" s="1"/>
     </row>
     <row r="756" ht="11.25" customHeight="1">
       <c r="A756" s="1"/>
@@ -21942,6 +22840,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
+      <c r="AA756" s="1"/>
     </row>
     <row r="757" ht="11.25" customHeight="1">
       <c r="A757" s="1"/>
@@ -21970,6 +22869,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
+      <c r="AA757" s="1"/>
     </row>
     <row r="758" ht="11.25" customHeight="1">
       <c r="A758" s="1"/>
@@ -21998,6 +22898,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
+      <c r="AA758" s="1"/>
     </row>
     <row r="759" ht="11.25" customHeight="1">
       <c r="A759" s="1"/>
@@ -22026,6 +22927,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
+      <c r="AA759" s="1"/>
     </row>
     <row r="760" ht="11.25" customHeight="1">
       <c r="A760" s="1"/>
@@ -22054,6 +22956,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
+      <c r="AA760" s="1"/>
     </row>
     <row r="761" ht="11.25" customHeight="1">
       <c r="A761" s="1"/>
@@ -22082,6 +22985,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
+      <c r="AA761" s="1"/>
     </row>
     <row r="762" ht="11.25" customHeight="1">
       <c r="A762" s="1"/>
@@ -22110,6 +23014,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
+      <c r="AA762" s="1"/>
     </row>
     <row r="763" ht="11.25" customHeight="1">
       <c r="A763" s="1"/>
@@ -22138,6 +23043,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
+      <c r="AA763" s="1"/>
     </row>
     <row r="764" ht="11.25" customHeight="1">
       <c r="A764" s="1"/>
@@ -22166,6 +23072,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
+      <c r="AA764" s="1"/>
     </row>
     <row r="765" ht="11.25" customHeight="1">
       <c r="A765" s="1"/>
@@ -22194,6 +23101,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
+      <c r="AA765" s="1"/>
     </row>
     <row r="766" ht="11.25" customHeight="1">
       <c r="A766" s="1"/>
@@ -22222,6 +23130,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
+      <c r="AA766" s="1"/>
     </row>
     <row r="767" ht="11.25" customHeight="1">
       <c r="A767" s="1"/>
@@ -22250,6 +23159,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
+      <c r="AA767" s="1"/>
     </row>
     <row r="768" ht="11.25" customHeight="1">
       <c r="A768" s="1"/>
@@ -22278,6 +23188,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
+      <c r="AA768" s="1"/>
     </row>
     <row r="769" ht="11.25" customHeight="1">
       <c r="A769" s="1"/>
@@ -22306,6 +23217,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
+      <c r="AA769" s="1"/>
     </row>
     <row r="770" ht="11.25" customHeight="1">
       <c r="A770" s="1"/>
@@ -22334,6 +23246,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
+      <c r="AA770" s="1"/>
     </row>
     <row r="771" ht="11.25" customHeight="1">
       <c r="A771" s="1"/>
@@ -22362,6 +23275,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
+      <c r="AA771" s="1"/>
     </row>
     <row r="772" ht="11.25" customHeight="1">
       <c r="A772" s="1"/>
@@ -22390,6 +23304,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
+      <c r="AA772" s="1"/>
     </row>
     <row r="773" ht="11.25" customHeight="1">
       <c r="A773" s="1"/>
@@ -22418,6 +23333,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
+      <c r="AA773" s="1"/>
     </row>
     <row r="774" ht="11.25" customHeight="1">
       <c r="A774" s="1"/>
@@ -22446,6 +23362,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
+      <c r="AA774" s="1"/>
     </row>
     <row r="775" ht="11.25" customHeight="1">
       <c r="A775" s="1"/>
@@ -22474,6 +23391,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
+      <c r="AA775" s="1"/>
     </row>
     <row r="776" ht="11.25" customHeight="1">
       <c r="A776" s="1"/>
@@ -22502,6 +23420,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
+      <c r="AA776" s="1"/>
     </row>
     <row r="777" ht="11.25" customHeight="1">
       <c r="A777" s="1"/>
@@ -22530,6 +23449,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
+      <c r="AA777" s="1"/>
     </row>
     <row r="778" ht="11.25" customHeight="1">
       <c r="A778" s="1"/>
@@ -22558,6 +23478,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
+      <c r="AA778" s="1"/>
     </row>
     <row r="779" ht="11.25" customHeight="1">
       <c r="A779" s="1"/>
@@ -22586,6 +23507,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
+      <c r="AA779" s="1"/>
     </row>
     <row r="780" ht="11.25" customHeight="1">
       <c r="A780" s="1"/>
@@ -22614,6 +23536,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
+      <c r="AA780" s="1"/>
     </row>
     <row r="781" ht="11.25" customHeight="1">
       <c r="A781" s="1"/>
@@ -22642,6 +23565,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
+      <c r="AA781" s="1"/>
     </row>
     <row r="782" ht="11.25" customHeight="1">
       <c r="A782" s="1"/>
@@ -22670,6 +23594,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
+      <c r="AA782" s="1"/>
     </row>
     <row r="783" ht="11.25" customHeight="1">
       <c r="A783" s="1"/>
@@ -22698,6 +23623,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
+      <c r="AA783" s="1"/>
     </row>
     <row r="784" ht="11.25" customHeight="1">
       <c r="A784" s="1"/>
@@ -22726,6 +23652,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
+      <c r="AA784" s="1"/>
     </row>
     <row r="785" ht="11.25" customHeight="1">
       <c r="A785" s="1"/>
@@ -22754,6 +23681,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
+      <c r="AA785" s="1"/>
     </row>
     <row r="786" ht="11.25" customHeight="1">
       <c r="A786" s="1"/>
@@ -22782,6 +23710,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
+      <c r="AA786" s="1"/>
     </row>
     <row r="787" ht="11.25" customHeight="1">
       <c r="A787" s="1"/>
@@ -22810,6 +23739,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
+      <c r="AA787" s="1"/>
     </row>
     <row r="788" ht="11.25" customHeight="1">
       <c r="A788" s="1"/>
@@ -22838,6 +23768,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
+      <c r="AA788" s="1"/>
     </row>
     <row r="789" ht="11.25" customHeight="1">
       <c r="A789" s="1"/>
@@ -22866,6 +23797,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
+      <c r="AA789" s="1"/>
     </row>
     <row r="790" ht="11.25" customHeight="1">
       <c r="A790" s="1"/>
@@ -22894,6 +23826,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
+      <c r="AA790" s="1"/>
     </row>
     <row r="791" ht="11.25" customHeight="1">
       <c r="A791" s="1"/>
@@ -22922,6 +23855,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
+      <c r="AA791" s="1"/>
     </row>
     <row r="792" ht="11.25" customHeight="1">
       <c r="A792" s="1"/>
@@ -22950,6 +23884,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
+      <c r="AA792" s="1"/>
     </row>
     <row r="793" ht="11.25" customHeight="1">
       <c r="A793" s="1"/>
@@ -22978,6 +23913,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
+      <c r="AA793" s="1"/>
     </row>
     <row r="794" ht="11.25" customHeight="1">
       <c r="A794" s="1"/>
@@ -23006,6 +23942,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
+      <c r="AA794" s="1"/>
     </row>
     <row r="795" ht="11.25" customHeight="1">
       <c r="A795" s="1"/>
@@ -23034,6 +23971,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
+      <c r="AA795" s="1"/>
     </row>
     <row r="796" ht="11.25" customHeight="1">
       <c r="A796" s="1"/>
@@ -23062,6 +24000,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
+      <c r="AA796" s="1"/>
     </row>
     <row r="797" ht="11.25" customHeight="1">
       <c r="A797" s="1"/>
@@ -23090,6 +24029,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
+      <c r="AA797" s="1"/>
     </row>
     <row r="798" ht="11.25" customHeight="1">
       <c r="A798" s="1"/>
@@ -23118,6 +24058,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
+      <c r="AA798" s="1"/>
     </row>
     <row r="799" ht="11.25" customHeight="1">
       <c r="A799" s="1"/>
@@ -23146,6 +24087,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
+      <c r="AA799" s="1"/>
     </row>
     <row r="800" ht="11.25" customHeight="1">
       <c r="A800" s="1"/>
@@ -23174,6 +24116,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
+      <c r="AA800" s="1"/>
     </row>
     <row r="801" ht="11.25" customHeight="1">
       <c r="A801" s="1"/>
@@ -23202,6 +24145,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
+      <c r="AA801" s="1"/>
     </row>
     <row r="802" ht="11.25" customHeight="1">
       <c r="A802" s="1"/>
@@ -23230,6 +24174,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
+      <c r="AA802" s="1"/>
     </row>
     <row r="803" ht="11.25" customHeight="1">
       <c r="A803" s="1"/>
@@ -23258,6 +24203,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
+      <c r="AA803" s="1"/>
     </row>
     <row r="804" ht="11.25" customHeight="1">
       <c r="A804" s="1"/>
@@ -23286,6 +24232,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
+      <c r="AA804" s="1"/>
     </row>
     <row r="805" ht="11.25" customHeight="1">
       <c r="A805" s="1"/>
@@ -23314,6 +24261,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
+      <c r="AA805" s="1"/>
     </row>
     <row r="806" ht="11.25" customHeight="1">
       <c r="A806" s="1"/>
@@ -23342,6 +24290,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
+      <c r="AA806" s="1"/>
     </row>
     <row r="807" ht="11.25" customHeight="1">
       <c r="A807" s="1"/>
@@ -23370,6 +24319,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
+      <c r="AA807" s="1"/>
     </row>
     <row r="808" ht="11.25" customHeight="1">
       <c r="A808" s="1"/>
@@ -23398,6 +24348,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
+      <c r="AA808" s="1"/>
     </row>
     <row r="809" ht="11.25" customHeight="1">
       <c r="A809" s="1"/>
@@ -23426,6 +24377,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
+      <c r="AA809" s="1"/>
     </row>
     <row r="810" ht="11.25" customHeight="1">
       <c r="A810" s="1"/>
@@ -23454,6 +24406,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
+      <c r="AA810" s="1"/>
     </row>
     <row r="811" ht="11.25" customHeight="1">
       <c r="A811" s="1"/>
@@ -23482,6 +24435,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
+      <c r="AA811" s="1"/>
     </row>
     <row r="812" ht="11.25" customHeight="1">
       <c r="A812" s="1"/>
@@ -23510,6 +24464,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
+      <c r="AA812" s="1"/>
     </row>
     <row r="813" ht="11.25" customHeight="1">
       <c r="A813" s="1"/>
@@ -23538,6 +24493,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
+      <c r="AA813" s="1"/>
     </row>
     <row r="814" ht="11.25" customHeight="1">
       <c r="A814" s="1"/>
@@ -23566,6 +24522,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
+      <c r="AA814" s="1"/>
     </row>
     <row r="815" ht="11.25" customHeight="1">
       <c r="A815" s="1"/>
@@ -23594,6 +24551,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
+      <c r="AA815" s="1"/>
     </row>
     <row r="816" ht="11.25" customHeight="1">
       <c r="A816" s="1"/>
@@ -23622,6 +24580,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
+      <c r="AA816" s="1"/>
     </row>
     <row r="817" ht="11.25" customHeight="1">
       <c r="A817" s="1"/>
@@ -23650,6 +24609,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
+      <c r="AA817" s="1"/>
     </row>
     <row r="818" ht="11.25" customHeight="1">
       <c r="A818" s="1"/>
@@ -23678,6 +24638,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
+      <c r="AA818" s="1"/>
     </row>
     <row r="819" ht="11.25" customHeight="1">
       <c r="A819" s="1"/>
@@ -23706,6 +24667,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
+      <c r="AA819" s="1"/>
     </row>
     <row r="820" ht="11.25" customHeight="1">
       <c r="A820" s="1"/>
@@ -23734,6 +24696,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
+      <c r="AA820" s="1"/>
     </row>
     <row r="821" ht="11.25" customHeight="1">
       <c r="A821" s="1"/>
@@ -23762,6 +24725,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
+      <c r="AA821" s="1"/>
     </row>
     <row r="822" ht="11.25" customHeight="1">
       <c r="A822" s="1"/>
@@ -23790,6 +24754,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
+      <c r="AA822" s="1"/>
     </row>
     <row r="823" ht="11.25" customHeight="1">
       <c r="A823" s="1"/>
@@ -23818,6 +24783,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
+      <c r="AA823" s="1"/>
     </row>
     <row r="824" ht="11.25" customHeight="1">
       <c r="A824" s="1"/>
@@ -23846,6 +24812,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
+      <c r="AA824" s="1"/>
     </row>
     <row r="825" ht="11.25" customHeight="1">
       <c r="A825" s="1"/>
@@ -23874,6 +24841,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
+      <c r="AA825" s="1"/>
     </row>
     <row r="826" ht="11.25" customHeight="1">
       <c r="A826" s="1"/>
@@ -23902,6 +24870,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
+      <c r="AA826" s="1"/>
     </row>
     <row r="827" ht="11.25" customHeight="1">
       <c r="A827" s="1"/>
@@ -23930,6 +24899,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
+      <c r="AA827" s="1"/>
     </row>
     <row r="828" ht="11.25" customHeight="1">
       <c r="A828" s="1"/>
@@ -23958,6 +24928,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
+      <c r="AA828" s="1"/>
     </row>
     <row r="829" ht="11.25" customHeight="1">
       <c r="A829" s="1"/>
@@ -23986,6 +24957,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
+      <c r="AA829" s="1"/>
     </row>
     <row r="830" ht="11.25" customHeight="1">
       <c r="A830" s="1"/>
@@ -24014,6 +24986,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
+      <c r="AA830" s="1"/>
     </row>
     <row r="831" ht="11.25" customHeight="1">
       <c r="A831" s="1"/>
@@ -24042,6 +25015,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
+      <c r="AA831" s="1"/>
     </row>
     <row r="832" ht="11.25" customHeight="1">
       <c r="A832" s="1"/>
@@ -24070,6 +25044,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
+      <c r="AA832" s="1"/>
     </row>
     <row r="833" ht="11.25" customHeight="1">
       <c r="A833" s="1"/>
@@ -24098,6 +25073,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
+      <c r="AA833" s="1"/>
     </row>
     <row r="834" ht="11.25" customHeight="1">
       <c r="A834" s="1"/>
@@ -24126,6 +25102,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
+      <c r="AA834" s="1"/>
     </row>
     <row r="835" ht="11.25" customHeight="1">
       <c r="A835" s="1"/>
@@ -24154,6 +25131,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
+      <c r="AA835" s="1"/>
     </row>
     <row r="836" ht="11.25" customHeight="1">
       <c r="A836" s="1"/>
@@ -24182,6 +25160,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
+      <c r="AA836" s="1"/>
     </row>
     <row r="837" ht="11.25" customHeight="1">
       <c r="A837" s="1"/>
@@ -24210,6 +25189,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
+      <c r="AA837" s="1"/>
     </row>
     <row r="838" ht="11.25" customHeight="1">
       <c r="A838" s="1"/>
@@ -24238,6 +25218,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
+      <c r="AA838" s="1"/>
     </row>
     <row r="839" ht="11.25" customHeight="1">
       <c r="A839" s="1"/>
@@ -24266,6 +25247,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
+      <c r="AA839" s="1"/>
     </row>
     <row r="840" ht="11.25" customHeight="1">
       <c r="A840" s="1"/>
@@ -24294,6 +25276,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
+      <c r="AA840" s="1"/>
     </row>
     <row r="841" ht="11.25" customHeight="1">
       <c r="A841" s="1"/>
@@ -24322,6 +25305,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
+      <c r="AA841" s="1"/>
     </row>
     <row r="842" ht="11.25" customHeight="1">
       <c r="A842" s="1"/>
@@ -24350,6 +25334,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
+      <c r="AA842" s="1"/>
     </row>
     <row r="843" ht="11.25" customHeight="1">
       <c r="A843" s="1"/>
@@ -24378,6 +25363,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
+      <c r="AA843" s="1"/>
     </row>
     <row r="844" ht="11.25" customHeight="1">
       <c r="A844" s="1"/>
@@ -24406,6 +25392,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
+      <c r="AA844" s="1"/>
     </row>
     <row r="845" ht="11.25" customHeight="1">
       <c r="A845" s="1"/>
@@ -24434,6 +25421,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
+      <c r="AA845" s="1"/>
     </row>
     <row r="846" ht="11.25" customHeight="1">
       <c r="A846" s="1"/>
@@ -24462,6 +25450,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
+      <c r="AA846" s="1"/>
     </row>
     <row r="847" ht="11.25" customHeight="1">
       <c r="A847" s="1"/>
@@ -24490,6 +25479,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
+      <c r="AA847" s="1"/>
     </row>
     <row r="848" ht="11.25" customHeight="1">
       <c r="A848" s="1"/>
@@ -24518,6 +25508,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
+      <c r="AA848" s="1"/>
     </row>
     <row r="849" ht="11.25" customHeight="1">
       <c r="A849" s="1"/>
@@ -24546,6 +25537,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
+      <c r="AA849" s="1"/>
     </row>
     <row r="850" ht="11.25" customHeight="1">
       <c r="A850" s="1"/>
@@ -24574,6 +25566,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
+      <c r="AA850" s="1"/>
     </row>
     <row r="851" ht="11.25" customHeight="1">
       <c r="A851" s="1"/>
@@ -24602,6 +25595,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
+      <c r="AA851" s="1"/>
     </row>
     <row r="852" ht="11.25" customHeight="1">
       <c r="A852" s="1"/>
@@ -24630,6 +25624,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
+      <c r="AA852" s="1"/>
     </row>
     <row r="853" ht="11.25" customHeight="1">
       <c r="A853" s="1"/>
@@ -24658,6 +25653,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
+      <c r="AA853" s="1"/>
     </row>
     <row r="854" ht="11.25" customHeight="1">
       <c r="A854" s="1"/>
@@ -24686,6 +25682,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
+      <c r="AA854" s="1"/>
     </row>
     <row r="855" ht="11.25" customHeight="1">
       <c r="A855" s="1"/>
@@ -24714,6 +25711,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
+      <c r="AA855" s="1"/>
     </row>
     <row r="856" ht="11.25" customHeight="1">
       <c r="A856" s="1"/>
@@ -24742,6 +25740,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
+      <c r="AA856" s="1"/>
     </row>
     <row r="857" ht="11.25" customHeight="1">
       <c r="A857" s="1"/>
@@ -24770,6 +25769,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
+      <c r="AA857" s="1"/>
     </row>
     <row r="858" ht="11.25" customHeight="1">
       <c r="A858" s="1"/>
@@ -24798,6 +25798,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
+      <c r="AA858" s="1"/>
     </row>
     <row r="859" ht="11.25" customHeight="1">
       <c r="A859" s="1"/>
@@ -24826,6 +25827,7 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
+      <c r="AA859" s="1"/>
     </row>
     <row r="860" ht="11.25" customHeight="1">
       <c r="A860" s="1"/>
@@ -24854,6 +25856,7 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
+      <c r="AA860" s="1"/>
     </row>
     <row r="861" ht="11.25" customHeight="1">
       <c r="A861" s="1"/>
@@ -24882,6 +25885,7 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
+      <c r="AA861" s="1"/>
     </row>
     <row r="862" ht="11.25" customHeight="1">
       <c r="A862" s="1"/>
@@ -24910,6 +25914,7 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
+      <c r="AA862" s="1"/>
     </row>
     <row r="863" ht="11.25" customHeight="1">
       <c r="A863" s="1"/>
@@ -24938,6 +25943,7 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
+      <c r="AA863" s="1"/>
     </row>
     <row r="864" ht="11.25" customHeight="1">
       <c r="A864" s="1"/>
@@ -24966,6 +25972,7 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
+      <c r="AA864" s="1"/>
     </row>
     <row r="865" ht="11.25" customHeight="1">
       <c r="A865" s="1"/>
@@ -24994,6 +26001,7 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
+      <c r="AA865" s="1"/>
     </row>
     <row r="866" ht="11.25" customHeight="1">
       <c r="A866" s="1"/>
@@ -25022,6 +26030,7 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
+      <c r="AA866" s="1"/>
     </row>
     <row r="867" ht="11.25" customHeight="1">
       <c r="A867" s="1"/>
@@ -25050,6 +26059,7 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
+      <c r="AA867" s="1"/>
     </row>
     <row r="868" ht="11.25" customHeight="1">
       <c r="A868" s="1"/>
@@ -25078,6 +26088,7 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
+      <c r="AA868" s="1"/>
     </row>
     <row r="869" ht="11.25" customHeight="1">
       <c r="A869" s="1"/>
@@ -25106,6 +26117,7 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
+      <c r="AA869" s="1"/>
     </row>
     <row r="870" ht="11.25" customHeight="1">
       <c r="A870" s="1"/>
@@ -25134,6 +26146,7 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
+      <c r="AA870" s="1"/>
     </row>
     <row r="871" ht="11.25" customHeight="1">
       <c r="A871" s="1"/>
@@ -25162,6 +26175,7 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
+      <c r="AA871" s="1"/>
     </row>
     <row r="872" ht="11.25" customHeight="1">
       <c r="A872" s="1"/>
@@ -25190,6 +26204,7 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
+      <c r="AA872" s="1"/>
     </row>
     <row r="873" ht="11.25" customHeight="1">
       <c r="A873" s="1"/>
@@ -25218,6 +26233,7 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
+      <c r="AA873" s="1"/>
     </row>
     <row r="874" ht="11.25" customHeight="1">
       <c r="A874" s="1"/>
@@ -25246,6 +26262,7 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
+      <c r="AA874" s="1"/>
     </row>
     <row r="875" ht="11.25" customHeight="1">
       <c r="A875" s="1"/>
@@ -25274,6 +26291,7 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
+      <c r="AA875" s="1"/>
     </row>
     <row r="876" ht="11.25" customHeight="1">
       <c r="A876" s="1"/>
@@ -25302,6 +26320,7 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
+      <c r="AA876" s="1"/>
     </row>
     <row r="877" ht="11.25" customHeight="1">
       <c r="A877" s="1"/>
@@ -25330,6 +26349,7 @@
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
+      <c r="AA877" s="1"/>
     </row>
     <row r="878" ht="11.25" customHeight="1">
       <c r="A878" s="1"/>
@@ -25358,6 +26378,7 @@
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
+      <c r="AA878" s="1"/>
     </row>
     <row r="879" ht="11.25" customHeight="1">
       <c r="A879" s="1"/>
@@ -25386,6 +26407,7 @@
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
+      <c r="AA879" s="1"/>
     </row>
     <row r="880" ht="11.25" customHeight="1">
       <c r="A880" s="1"/>
@@ -25414,6 +26436,7 @@
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
+      <c r="AA880" s="1"/>
     </row>
     <row r="881" ht="11.25" customHeight="1">
       <c r="A881" s="1"/>
@@ -25442,6 +26465,7 @@
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
+      <c r="AA881" s="1"/>
     </row>
     <row r="882" ht="11.25" customHeight="1">
       <c r="A882" s="1"/>
@@ -25470,6 +26494,7 @@
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
+      <c r="AA882" s="1"/>
     </row>
     <row r="883" ht="11.25" customHeight="1">
       <c r="A883" s="1"/>
@@ -25498,6 +26523,7 @@
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
+      <c r="AA883" s="1"/>
     </row>
     <row r="884" ht="11.25" customHeight="1">
       <c r="A884" s="1"/>
@@ -25526,6 +26552,7 @@
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
+      <c r="AA884" s="1"/>
     </row>
     <row r="885" ht="11.25" customHeight="1">
       <c r="A885" s="1"/>
@@ -25554,6 +26581,7 @@
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
+      <c r="AA885" s="1"/>
     </row>
     <row r="886" ht="11.25" customHeight="1">
       <c r="A886" s="1"/>
@@ -25582,6 +26610,7 @@
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
+      <c r="AA886" s="1"/>
     </row>
     <row r="887" ht="11.25" customHeight="1">
       <c r="A887" s="1"/>
@@ -25610,6 +26639,7 @@
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
+      <c r="AA887" s="1"/>
     </row>
     <row r="888" ht="11.25" customHeight="1">
       <c r="A888" s="1"/>
@@ -25638,6 +26668,7 @@
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
+      <c r="AA888" s="1"/>
     </row>
     <row r="889" ht="11.25" customHeight="1">
       <c r="A889" s="1"/>
@@ -25666,6 +26697,7 @@
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
+      <c r="AA889" s="1"/>
     </row>
     <row r="890" ht="11.25" customHeight="1">
       <c r="A890" s="1"/>
@@ -25694,6 +26726,7 @@
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
+      <c r="AA890" s="1"/>
     </row>
     <row r="891" ht="11.25" customHeight="1">
       <c r="A891" s="1"/>
@@ -25722,6 +26755,7 @@
       <c r="X891" s="1"/>
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
+      <c r="AA891" s="1"/>
     </row>
     <row r="892" ht="11.25" customHeight="1">
       <c r="A892" s="1"/>
@@ -25750,6 +26784,7 @@
       <c r="X892" s="1"/>
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
+      <c r="AA892" s="1"/>
     </row>
     <row r="893" ht="11.25" customHeight="1">
       <c r="A893" s="1"/>
@@ -25778,6 +26813,7 @@
       <c r="X893" s="1"/>
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
+      <c r="AA893" s="1"/>
     </row>
     <row r="894" ht="11.25" customHeight="1">
       <c r="A894" s="1"/>
@@ -25806,6 +26842,7 @@
       <c r="X894" s="1"/>
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
+      <c r="AA894" s="1"/>
     </row>
     <row r="895" ht="11.25" customHeight="1">
       <c r="A895" s="1"/>
@@ -25834,6 +26871,7 @@
       <c r="X895" s="1"/>
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
+      <c r="AA895" s="1"/>
     </row>
     <row r="896" ht="11.25" customHeight="1">
       <c r="A896" s="1"/>
@@ -25862,6 +26900,7 @@
       <c r="X896" s="1"/>
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
+      <c r="AA896" s="1"/>
     </row>
     <row r="897" ht="11.25" customHeight="1">
       <c r="A897" s="1"/>
@@ -25890,6 +26929,7 @@
       <c r="X897" s="1"/>
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
+      <c r="AA897" s="1"/>
     </row>
     <row r="898" ht="11.25" customHeight="1">
       <c r="A898" s="1"/>
@@ -25918,6 +26958,7 @@
       <c r="X898" s="1"/>
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
+      <c r="AA898" s="1"/>
     </row>
     <row r="899" ht="11.25" customHeight="1">
       <c r="A899" s="1"/>
@@ -25946,6 +26987,7 @@
       <c r="X899" s="1"/>
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
+      <c r="AA899" s="1"/>
     </row>
     <row r="900" ht="11.25" customHeight="1">
       <c r="A900" s="1"/>
@@ -25974,6 +27016,7 @@
       <c r="X900" s="1"/>
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
+      <c r="AA900" s="1"/>
     </row>
     <row r="901" ht="11.25" customHeight="1">
       <c r="A901" s="1"/>
@@ -26002,6 +27045,7 @@
       <c r="X901" s="1"/>
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
+      <c r="AA901" s="1"/>
     </row>
     <row r="902" ht="11.25" customHeight="1">
       <c r="A902" s="1"/>
@@ -26030,6 +27074,7 @@
       <c r="X902" s="1"/>
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
+      <c r="AA902" s="1"/>
     </row>
     <row r="903" ht="11.25" customHeight="1">
       <c r="A903" s="1"/>
@@ -26058,6 +27103,7 @@
       <c r="X903" s="1"/>
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
+      <c r="AA903" s="1"/>
     </row>
     <row r="904" ht="11.25" customHeight="1">
       <c r="A904" s="1"/>
@@ -26086,6 +27132,7 @@
       <c r="X904" s="1"/>
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
+      <c r="AA904" s="1"/>
     </row>
     <row r="905" ht="11.25" customHeight="1">
       <c r="A905" s="1"/>
@@ -26114,6 +27161,7 @@
       <c r="X905" s="1"/>
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
+      <c r="AA905" s="1"/>
     </row>
     <row r="906" ht="11.25" customHeight="1">
       <c r="A906" s="1"/>
@@ -26142,6 +27190,7 @@
       <c r="X906" s="1"/>
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
+      <c r="AA906" s="1"/>
     </row>
     <row r="907" ht="11.25" customHeight="1">
       <c r="A907" s="1"/>
@@ -26170,6 +27219,7 @@
       <c r="X907" s="1"/>
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
+      <c r="AA907" s="1"/>
     </row>
     <row r="908" ht="11.25" customHeight="1">
       <c r="A908" s="1"/>
@@ -26198,6 +27248,7 @@
       <c r="X908" s="1"/>
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
+      <c r="AA908" s="1"/>
     </row>
     <row r="909" ht="11.25" customHeight="1">
       <c r="A909" s="1"/>
@@ -26226,6 +27277,7 @@
       <c r="X909" s="1"/>
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
+      <c r="AA909" s="1"/>
     </row>
     <row r="910" ht="11.25" customHeight="1">
       <c r="A910" s="1"/>
@@ -26254,6 +27306,7 @@
       <c r="X910" s="1"/>
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
+      <c r="AA910" s="1"/>
     </row>
     <row r="911" ht="11.25" customHeight="1">
       <c r="A911" s="1"/>
@@ -26282,6 +27335,7 @@
       <c r="X911" s="1"/>
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
+      <c r="AA911" s="1"/>
     </row>
     <row r="912" ht="11.25" customHeight="1">
       <c r="A912" s="1"/>
@@ -26310,6 +27364,7 @@
       <c r="X912" s="1"/>
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
+      <c r="AA912" s="1"/>
     </row>
     <row r="913" ht="11.25" customHeight="1">
       <c r="A913" s="1"/>
@@ -26338,6 +27393,7 @@
       <c r="X913" s="1"/>
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
+      <c r="AA913" s="1"/>
     </row>
     <row r="914" ht="11.25" customHeight="1">
       <c r="A914" s="1"/>
@@ -26366,6 +27422,7 @@
       <c r="X914" s="1"/>
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
+      <c r="AA914" s="1"/>
     </row>
     <row r="915" ht="11.25" customHeight="1">
       <c r="A915" s="1"/>
@@ -26394,6 +27451,7 @@
       <c r="X915" s="1"/>
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
+      <c r="AA915" s="1"/>
     </row>
     <row r="916" ht="11.25" customHeight="1">
       <c r="A916" s="1"/>
@@ -26422,6 +27480,7 @@
       <c r="X916" s="1"/>
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
+      <c r="AA916" s="1"/>
     </row>
     <row r="917" ht="11.25" customHeight="1">
       <c r="A917" s="1"/>
@@ -26450,6 +27509,7 @@
       <c r="X917" s="1"/>
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
+      <c r="AA917" s="1"/>
     </row>
     <row r="918" ht="11.25" customHeight="1">
       <c r="A918" s="1"/>
@@ -26478,6 +27538,7 @@
       <c r="X918" s="1"/>
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
+      <c r="AA918" s="1"/>
     </row>
     <row r="919" ht="11.25" customHeight="1">
       <c r="A919" s="1"/>
@@ -26506,6 +27567,7 @@
       <c r="X919" s="1"/>
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
+      <c r="AA919" s="1"/>
     </row>
     <row r="920" ht="11.25" customHeight="1">
       <c r="A920" s="1"/>
@@ -26534,6 +27596,7 @@
       <c r="X920" s="1"/>
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
+      <c r="AA920" s="1"/>
     </row>
     <row r="921" ht="11.25" customHeight="1">
       <c r="A921" s="1"/>
@@ -26562,6 +27625,7 @@
       <c r="X921" s="1"/>
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
+      <c r="AA921" s="1"/>
     </row>
     <row r="922" ht="11.25" customHeight="1">
       <c r="A922" s="1"/>
@@ -26590,6 +27654,7 @@
       <c r="X922" s="1"/>
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
+      <c r="AA922" s="1"/>
     </row>
     <row r="923" ht="11.25" customHeight="1">
       <c r="A923" s="1"/>
@@ -26618,6 +27683,7 @@
       <c r="X923" s="1"/>
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
+      <c r="AA923" s="1"/>
     </row>
     <row r="924" ht="11.25" customHeight="1">
       <c r="A924" s="1"/>
@@ -26646,6 +27712,7 @@
       <c r="X924" s="1"/>
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
+      <c r="AA924" s="1"/>
     </row>
     <row r="925" ht="11.25" customHeight="1">
       <c r="A925" s="1"/>
@@ -26674,6 +27741,7 @@
       <c r="X925" s="1"/>
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
+      <c r="AA925" s="1"/>
     </row>
     <row r="926" ht="11.25" customHeight="1">
       <c r="A926" s="1"/>
@@ -26702,6 +27770,7 @@
       <c r="X926" s="1"/>
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
+      <c r="AA926" s="1"/>
     </row>
     <row r="927" ht="11.25" customHeight="1">
       <c r="A927" s="1"/>
@@ -26730,6 +27799,7 @@
       <c r="X927" s="1"/>
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
+      <c r="AA927" s="1"/>
     </row>
     <row r="928" ht="11.25" customHeight="1">
       <c r="A928" s="1"/>
@@ -26758,6 +27828,7 @@
       <c r="X928" s="1"/>
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
+      <c r="AA928" s="1"/>
     </row>
     <row r="929" ht="11.25" customHeight="1">
       <c r="A929" s="1"/>
@@ -26786,6 +27857,7 @@
       <c r="X929" s="1"/>
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
+      <c r="AA929" s="1"/>
     </row>
     <row r="930" ht="11.25" customHeight="1">
       <c r="A930" s="1"/>
@@ -26814,6 +27886,7 @@
       <c r="X930" s="1"/>
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
+      <c r="AA930" s="1"/>
     </row>
     <row r="931" ht="11.25" customHeight="1">
       <c r="A931" s="1"/>
@@ -26842,6 +27915,7 @@
       <c r="X931" s="1"/>
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
+      <c r="AA931" s="1"/>
     </row>
     <row r="932" ht="11.25" customHeight="1">
       <c r="A932" s="1"/>
@@ -26870,6 +27944,7 @@
       <c r="X932" s="1"/>
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
+      <c r="AA932" s="1"/>
     </row>
     <row r="933" ht="11.25" customHeight="1">
       <c r="A933" s="1"/>
@@ -26898,6 +27973,7 @@
       <c r="X933" s="1"/>
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
+      <c r="AA933" s="1"/>
     </row>
     <row r="934" ht="11.25" customHeight="1">
       <c r="A934" s="1"/>
@@ -26926,6 +28002,7 @@
       <c r="X934" s="1"/>
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
+      <c r="AA934" s="1"/>
     </row>
     <row r="935" ht="11.25" customHeight="1">
       <c r="A935" s="1"/>
@@ -26954,6 +28031,7 @@
       <c r="X935" s="1"/>
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
+      <c r="AA935" s="1"/>
     </row>
     <row r="936" ht="11.25" customHeight="1">
       <c r="A936" s="1"/>
@@ -26982,6 +28060,7 @@
       <c r="X936" s="1"/>
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
+      <c r="AA936" s="1"/>
     </row>
     <row r="937" ht="11.25" customHeight="1">
       <c r="A937" s="1"/>
@@ -27010,6 +28089,7 @@
       <c r="X937" s="1"/>
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
+      <c r="AA937" s="1"/>
     </row>
     <row r="938" ht="11.25" customHeight="1">
       <c r="A938" s="1"/>
@@ -27038,6 +28118,7 @@
       <c r="X938" s="1"/>
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
+      <c r="AA938" s="1"/>
     </row>
     <row r="939" ht="11.25" customHeight="1">
       <c r="A939" s="1"/>
@@ -27066,6 +28147,7 @@
       <c r="X939" s="1"/>
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
+      <c r="AA939" s="1"/>
     </row>
     <row r="940" ht="11.25" customHeight="1">
       <c r="A940" s="1"/>
@@ -27094,6 +28176,7 @@
       <c r="X940" s="1"/>
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
+      <c r="AA940" s="1"/>
     </row>
     <row r="941" ht="11.25" customHeight="1">
       <c r="A941" s="1"/>
@@ -27122,6 +28205,7 @@
       <c r="X941" s="1"/>
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
+      <c r="AA941" s="1"/>
     </row>
     <row r="942" ht="11.25" customHeight="1">
       <c r="A942" s="1"/>
@@ -27150,6 +28234,7 @@
       <c r="X942" s="1"/>
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
+      <c r="AA942" s="1"/>
     </row>
     <row r="943" ht="11.25" customHeight="1">
       <c r="A943" s="1"/>
@@ -27178,6 +28263,7 @@
       <c r="X943" s="1"/>
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
+      <c r="AA943" s="1"/>
     </row>
     <row r="944" ht="11.25" customHeight="1">
       <c r="A944" s="1"/>
@@ -27206,6 +28292,7 @@
       <c r="X944" s="1"/>
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
+      <c r="AA944" s="1"/>
     </row>
     <row r="945" ht="11.25" customHeight="1">
       <c r="A945" s="1"/>
@@ -27234,6 +28321,7 @@
       <c r="X945" s="1"/>
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
+      <c r="AA945" s="1"/>
     </row>
     <row r="946" ht="11.25" customHeight="1">
       <c r="A946" s="1"/>
@@ -27262,6 +28350,7 @@
       <c r="X946" s="1"/>
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
+      <c r="AA946" s="1"/>
     </row>
     <row r="947" ht="11.25" customHeight="1">
       <c r="A947" s="1"/>
@@ -27290,6 +28379,7 @@
       <c r="X947" s="1"/>
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
+      <c r="AA947" s="1"/>
     </row>
     <row r="948" ht="11.25" customHeight="1">
       <c r="A948" s="1"/>
@@ -27318,6 +28408,7 @@
       <c r="X948" s="1"/>
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
+      <c r="AA948" s="1"/>
     </row>
     <row r="949" ht="11.25" customHeight="1">
       <c r="A949" s="1"/>
@@ -27346,6 +28437,7 @@
       <c r="X949" s="1"/>
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
+      <c r="AA949" s="1"/>
     </row>
     <row r="950" ht="11.25" customHeight="1">
       <c r="A950" s="1"/>
@@ -27374,6 +28466,7 @@
       <c r="X950" s="1"/>
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
+      <c r="AA950" s="1"/>
     </row>
     <row r="951" ht="11.25" customHeight="1">
       <c r="A951" s="1"/>
@@ -27402,6 +28495,7 @@
       <c r="X951" s="1"/>
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
+      <c r="AA951" s="1"/>
     </row>
     <row r="952" ht="11.25" customHeight="1">
       <c r="A952" s="1"/>
@@ -27430,6 +28524,7 @@
       <c r="X952" s="1"/>
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
+      <c r="AA952" s="1"/>
     </row>
     <row r="953" ht="11.25" customHeight="1">
       <c r="A953" s="1"/>
@@ -27458,6 +28553,7 @@
       <c r="X953" s="1"/>
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
+      <c r="AA953" s="1"/>
     </row>
     <row r="954" ht="11.25" customHeight="1">
       <c r="A954" s="1"/>
@@ -27486,6 +28582,7 @@
       <c r="X954" s="1"/>
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
+      <c r="AA954" s="1"/>
     </row>
     <row r="955" ht="11.25" customHeight="1">
       <c r="A955" s="1"/>
@@ -27514,6 +28611,7 @@
       <c r="X955" s="1"/>
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
+      <c r="AA955" s="1"/>
     </row>
     <row r="956" ht="11.25" customHeight="1">
       <c r="A956" s="1"/>
@@ -27542,6 +28640,7 @@
       <c r="X956" s="1"/>
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
+      <c r="AA956" s="1"/>
     </row>
     <row r="957" ht="11.25" customHeight="1">
       <c r="A957" s="1"/>
@@ -27570,6 +28669,7 @@
       <c r="X957" s="1"/>
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
+      <c r="AA957" s="1"/>
     </row>
     <row r="958" ht="11.25" customHeight="1">
       <c r="A958" s="1"/>
@@ -27598,6 +28698,7 @@
       <c r="X958" s="1"/>
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
+      <c r="AA958" s="1"/>
     </row>
     <row r="959" ht="11.25" customHeight="1">
       <c r="A959" s="1"/>
@@ -27626,6 +28727,7 @@
       <c r="X959" s="1"/>
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
+      <c r="AA959" s="1"/>
     </row>
     <row r="960" ht="11.25" customHeight="1">
       <c r="A960" s="1"/>
@@ -27654,6 +28756,7 @@
       <c r="X960" s="1"/>
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
+      <c r="AA960" s="1"/>
     </row>
     <row r="961" ht="11.25" customHeight="1">
       <c r="A961" s="1"/>
@@ -27682,6 +28785,7 @@
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
+      <c r="AA961" s="1"/>
     </row>
     <row r="962" ht="11.25" customHeight="1">
       <c r="A962" s="1"/>
@@ -27710,6 +28814,7 @@
       <c r="X962" s="1"/>
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
+      <c r="AA962" s="1"/>
     </row>
     <row r="963" ht="11.25" customHeight="1">
       <c r="A963" s="1"/>
@@ -27738,6 +28843,7 @@
       <c r="X963" s="1"/>
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
+      <c r="AA963" s="1"/>
     </row>
     <row r="964" ht="11.25" customHeight="1">
       <c r="A964" s="1"/>
@@ -27766,6 +28872,7 @@
       <c r="X964" s="1"/>
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
+      <c r="AA964" s="1"/>
     </row>
     <row r="965" ht="11.25" customHeight="1">
       <c r="A965" s="1"/>
@@ -27794,6 +28901,7 @@
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
+      <c r="AA965" s="1"/>
     </row>
     <row r="966" ht="11.25" customHeight="1">
       <c r="A966" s="1"/>
@@ -27822,6 +28930,7 @@
       <c r="X966" s="1"/>
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
+      <c r="AA966" s="1"/>
     </row>
     <row r="967" ht="11.25" customHeight="1">
       <c r="A967" s="1"/>
@@ -27850,6 +28959,7 @@
       <c r="X967" s="1"/>
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
+      <c r="AA967" s="1"/>
     </row>
     <row r="968" ht="11.25" customHeight="1">
       <c r="A968" s="1"/>
@@ -27878,6 +28988,7 @@
       <c r="X968" s="1"/>
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
+      <c r="AA968" s="1"/>
     </row>
     <row r="969" ht="11.25" customHeight="1">
       <c r="A969" s="1"/>
@@ -27906,6 +29017,7 @@
       <c r="X969" s="1"/>
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
+      <c r="AA969" s="1"/>
     </row>
     <row r="970" ht="11.25" customHeight="1">
       <c r="A970" s="1"/>
@@ -27934,6 +29046,7 @@
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
+      <c r="AA970" s="1"/>
     </row>
     <row r="971" ht="11.25" customHeight="1">
       <c r="A971" s="1"/>
@@ -27962,6 +29075,7 @@
       <c r="X971" s="1"/>
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
+      <c r="AA971" s="1"/>
     </row>
     <row r="972" ht="11.25" customHeight="1">
       <c r="A972" s="1"/>
@@ -27990,6 +29104,7 @@
       <c r="X972" s="1"/>
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
+      <c r="AA972" s="1"/>
     </row>
     <row r="973" ht="11.25" customHeight="1">
       <c r="A973" s="1"/>
@@ -28018,6 +29133,7 @@
       <c r="X973" s="1"/>
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
+      <c r="AA973" s="1"/>
     </row>
     <row r="974" ht="11.25" customHeight="1">
       <c r="A974" s="1"/>
@@ -28046,6 +29162,7 @@
       <c r="X974" s="1"/>
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
+      <c r="AA974" s="1"/>
     </row>
     <row r="975" ht="11.25" customHeight="1">
       <c r="A975" s="1"/>
@@ -28074,6 +29191,7 @@
       <c r="X975" s="1"/>
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
+      <c r="AA975" s="1"/>
     </row>
     <row r="976" ht="11.25" customHeight="1">
       <c r="A976" s="1"/>
@@ -28102,6 +29220,7 @@
       <c r="X976" s="1"/>
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
+      <c r="AA976" s="1"/>
     </row>
     <row r="977" ht="11.25" customHeight="1">
       <c r="A977" s="1"/>
@@ -28130,6 +29249,7 @@
       <c r="X977" s="1"/>
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
+      <c r="AA977" s="1"/>
     </row>
     <row r="978" ht="11.25" customHeight="1">
       <c r="A978" s="1"/>
@@ -28158,6 +29278,7 @@
       <c r="X978" s="1"/>
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
+      <c r="AA978" s="1"/>
     </row>
     <row r="979" ht="11.25" customHeight="1">
       <c r="A979" s="1"/>
@@ -28186,6 +29307,7 @@
       <c r="X979" s="1"/>
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
+      <c r="AA979" s="1"/>
     </row>
     <row r="980" ht="11.25" customHeight="1">
       <c r="A980" s="1"/>
@@ -28214,6 +29336,7 @@
       <c r="X980" s="1"/>
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
+      <c r="AA980" s="1"/>
     </row>
     <row r="981" ht="11.25" customHeight="1">
       <c r="A981" s="1"/>
@@ -28242,6 +29365,7 @@
       <c r="X981" s="1"/>
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
+      <c r="AA981" s="1"/>
     </row>
     <row r="982" ht="11.25" customHeight="1">
       <c r="A982" s="1"/>
@@ -28270,6 +29394,7 @@
       <c r="X982" s="1"/>
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
+      <c r="AA982" s="1"/>
     </row>
     <row r="983" ht="11.25" customHeight="1">
       <c r="A983" s="1"/>
@@ -28298,6 +29423,7 @@
       <c r="X983" s="1"/>
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
+      <c r="AA983" s="1"/>
     </row>
     <row r="984" ht="11.25" customHeight="1">
       <c r="A984" s="1"/>
@@ -28326,6 +29452,7 @@
       <c r="X984" s="1"/>
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
+      <c r="AA984" s="1"/>
     </row>
     <row r="985" ht="11.25" customHeight="1">
       <c r="A985" s="1"/>
@@ -28354,6 +29481,7 @@
       <c r="X985" s="1"/>
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
+      <c r="AA985" s="1"/>
     </row>
     <row r="986" ht="11.25" customHeight="1">
       <c r="A986" s="1"/>
@@ -28382,6 +29510,7 @@
       <c r="X986" s="1"/>
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
+      <c r="AA986" s="1"/>
     </row>
     <row r="987" ht="11.25" customHeight="1">
       <c r="A987" s="1"/>
@@ -28410,6 +29539,7 @@
       <c r="X987" s="1"/>
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
+      <c r="AA987" s="1"/>
     </row>
     <row r="988" ht="11.25" customHeight="1">
       <c r="A988" s="1"/>
@@ -28438,6 +29568,7 @@
       <c r="X988" s="1"/>
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
+      <c r="AA988" s="1"/>
     </row>
     <row r="989" ht="11.25" customHeight="1">
       <c r="A989" s="1"/>
@@ -28466,6 +29597,7 @@
       <c r="X989" s="1"/>
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
     </row>
     <row r="990" ht="11.25" customHeight="1">
       <c r="A990" s="1"/>
@@ -28494,6 +29626,7 @@
       <c r="X990" s="1"/>
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
+      <c r="AA990" s="1"/>
     </row>
     <row r="991" ht="11.25" customHeight="1">
       <c r="A991" s="1"/>
@@ -28522,6 +29655,7 @@
       <c r="X991" s="1"/>
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
+      <c r="AA991" s="1"/>
     </row>
     <row r="992" ht="11.25" customHeight="1">
       <c r="A992" s="1"/>
@@ -28550,6 +29684,7 @@
       <c r="X992" s="1"/>
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
+      <c r="AA992" s="1"/>
     </row>
     <row r="993" ht="11.25" customHeight="1">
       <c r="A993" s="1"/>
@@ -28578,6 +29713,7 @@
       <c r="X993" s="1"/>
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
+      <c r="AA993" s="1"/>
     </row>
     <row r="994" ht="11.25" customHeight="1">
       <c r="A994" s="1"/>
@@ -28606,6 +29742,7 @@
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
+      <c r="AA994" s="1"/>
     </row>
     <row r="995" ht="11.25" customHeight="1">
       <c r="A995" s="1"/>
@@ -28634,6 +29771,7 @@
       <c r="X995" s="1"/>
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
+      <c r="AA995" s="1"/>
     </row>
     <row r="996" ht="11.25" customHeight="1">
       <c r="A996" s="1"/>
@@ -28662,6 +29800,7 @@
       <c r="X996" s="1"/>
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
+      <c r="AA996" s="1"/>
     </row>
     <row r="997" ht="11.25" customHeight="1">
       <c r="A997" s="1"/>
@@ -28690,6 +29829,7 @@
       <c r="X997" s="1"/>
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
+      <c r="AA997" s="1"/>
     </row>
     <row r="998" ht="11.25" customHeight="1">
       <c r="A998" s="1"/>
@@ -28718,6 +29858,7 @@
       <c r="X998" s="1"/>
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
+      <c r="AA998" s="1"/>
     </row>
     <row r="999" ht="11.25" customHeight="1">
       <c r="A999" s="1"/>
@@ -28746,6 +29887,7 @@
       <c r="X999" s="1"/>
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
+      <c r="AA999" s="1"/>
     </row>
     <row r="1000" ht="11.25" customHeight="1">
       <c r="A1000" s="1"/>
@@ -28774,11 +29916,12 @@
       <c r="X1000" s="1"/>
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
+      <c r="AA1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="K3:K7"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
